--- a/data/raw/election/voters-age-sex-education/2023/Gaziantep.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Gaziantep.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:39:59-73148689728" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="38">
   <si>
     <t>Gaziantep</t>
   </si>
@@ -128,6 +127,12 @@
   </si>
   <si>
     <t>Yavuzeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -661,7 +666,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -675,16 +680,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1009,10 +1023,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N238"/>
+  <dimension ref="A1:N240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:A240"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,59 +1035,59 @@
     <col min="2" max="2" width="5.5703125" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1130,8 +1144,8 @@
       <c r="G6" s="4">
         <v>875</v>
       </c>
-      <c r="H6" s="4">
-        <v>1.119</v>
+      <c r="H6" s="5">
+        <v>1119</v>
       </c>
       <c r="I6" s="4">
         <v>162</v>
@@ -1145,8 +1159,8 @@
       <c r="L6" s="4">
         <v>18</v>
       </c>
-      <c r="M6" s="5">
-        <v>2.2149999999999999</v>
+      <c r="M6" s="6">
+        <v>2215</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1169,8 +1183,8 @@
       <c r="G7" s="4">
         <v>656</v>
       </c>
-      <c r="H7" s="4">
-        <v>1.111</v>
+      <c r="H7" s="5">
+        <v>1111</v>
       </c>
       <c r="I7" s="4">
         <v>269</v>
@@ -1184,8 +1198,8 @@
       <c r="L7" s="4">
         <v>2</v>
       </c>
-      <c r="M7" s="5">
-        <v>2.0790000000000002</v>
+      <c r="M7" s="6">
+        <v>2079</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1225,8 +1239,8 @@
       <c r="L8" s="4">
         <v>4</v>
       </c>
-      <c r="M8" s="5">
-        <v>1.198</v>
+      <c r="M8" s="6">
+        <v>1198</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1264,8 +1278,8 @@
       <c r="L9" s="4">
         <v>4</v>
       </c>
-      <c r="M9" s="5">
-        <v>1.121</v>
+      <c r="M9" s="6">
+        <v>1121</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1305,8 +1319,8 @@
       <c r="L10" s="4">
         <v>2</v>
       </c>
-      <c r="M10" s="5">
-        <v>1.099</v>
+      <c r="M10" s="6">
+        <v>1099</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1344,7 +1358,7 @@
       <c r="L11" s="4">
         <v>9</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="7">
         <v>948</v>
       </c>
     </row>
@@ -1385,8 +1399,8 @@
       <c r="L12" s="4">
         <v>13</v>
       </c>
-      <c r="M12" s="5">
-        <v>1.0720000000000001</v>
+      <c r="M12" s="6">
+        <v>1072</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1424,7 +1438,7 @@
       <c r="L13" s="4">
         <v>8</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="7">
         <v>959</v>
       </c>
     </row>
@@ -1465,7 +1479,7 @@
       <c r="L14" s="4">
         <v>10</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="7">
         <v>996</v>
       </c>
     </row>
@@ -1504,7 +1518,7 @@
       <c r="L15" s="4">
         <v>6</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="7">
         <v>998</v>
       </c>
     </row>
@@ -1545,7 +1559,7 @@
       <c r="L16" s="4">
         <v>10</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="7">
         <v>895</v>
       </c>
     </row>
@@ -1584,7 +1598,7 @@
       <c r="L17" s="4">
         <v>3</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="7">
         <v>827</v>
       </c>
     </row>
@@ -1625,7 +1639,7 @@
       <c r="L18" s="4">
         <v>11</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="7">
         <v>801</v>
       </c>
     </row>
@@ -1664,7 +1678,7 @@
       <c r="L19" s="4">
         <v>6</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="7">
         <v>757</v>
       </c>
     </row>
@@ -1705,7 +1719,7 @@
       <c r="L20" s="4">
         <v>14</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="7">
         <v>732</v>
       </c>
     </row>
@@ -1744,7 +1758,7 @@
       <c r="L21" s="4">
         <v>9</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="7">
         <v>766</v>
       </c>
     </row>
@@ -1785,7 +1799,7 @@
       <c r="L22" s="4">
         <v>7</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="7">
         <v>556</v>
       </c>
     </row>
@@ -1824,7 +1838,7 @@
       <c r="L23" s="4">
         <v>10</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="7">
         <v>657</v>
       </c>
     </row>
@@ -1865,7 +1879,7 @@
       <c r="L24" s="4">
         <v>13</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="7">
         <v>505</v>
       </c>
     </row>
@@ -1904,7 +1918,7 @@
       <c r="L25" s="4">
         <v>5</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="7">
         <v>462</v>
       </c>
     </row>
@@ -1945,7 +1959,7 @@
       <c r="L26" s="4">
         <v>3</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="7">
         <v>419</v>
       </c>
     </row>
@@ -1984,7 +1998,7 @@
       <c r="L27" s="4">
         <v>6</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="7">
         <v>544</v>
       </c>
     </row>
@@ -2025,7 +2039,7 @@
       <c r="L28" s="4">
         <v>8</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="7">
         <v>497</v>
       </c>
     </row>
@@ -2064,7 +2078,7 @@
       <c r="L29" s="4">
         <v>4</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="7">
         <v>883</v>
       </c>
     </row>
@@ -2072,46 +2086,46 @@
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>1.3440000000000001</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1.1830000000000001</v>
-      </c>
-      <c r="E30" s="5">
-        <v>5.4269999999999996</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2.036</v>
-      </c>
-      <c r="G30" s="5">
-        <v>4.468</v>
-      </c>
-      <c r="H30" s="5">
-        <v>4.92</v>
-      </c>
-      <c r="I30" s="5">
-        <v>2.21</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="B30" s="8"/>
+      <c r="C30" s="6">
+        <v>1344</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1183</v>
+      </c>
+      <c r="E30" s="6">
+        <v>5427</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2036</v>
+      </c>
+      <c r="G30" s="6">
+        <v>4468</v>
+      </c>
+      <c r="H30" s="6">
+        <v>4920</v>
+      </c>
+      <c r="I30" s="6">
+        <v>2210</v>
+      </c>
+      <c r="J30" s="7">
         <v>203</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="7">
         <v>10</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="7">
         <v>185</v>
       </c>
-      <c r="M30" s="5">
-        <v>21.986000000000001</v>
+      <c r="M30" s="6">
+        <v>21986</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2168,8 +2182,8 @@
       <c r="G32" s="4">
         <v>868</v>
       </c>
-      <c r="H32" s="4">
-        <v>2.331</v>
+      <c r="H32" s="5">
+        <v>2331</v>
       </c>
       <c r="I32" s="4">
         <v>464</v>
@@ -2183,8 +2197,8 @@
       <c r="L32" s="4">
         <v>43</v>
       </c>
-      <c r="M32" s="5">
-        <v>3.7469999999999999</v>
+      <c r="M32" s="6">
+        <v>3747</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2207,8 +2221,8 @@
       <c r="G33" s="4">
         <v>790</v>
       </c>
-      <c r="H33" s="4">
-        <v>2.1040000000000001</v>
+      <c r="H33" s="5">
+        <v>2104</v>
       </c>
       <c r="I33" s="4">
         <v>554</v>
@@ -2222,8 +2236,8 @@
       <c r="L33" s="4">
         <v>9</v>
       </c>
-      <c r="M33" s="5">
-        <v>3.516</v>
+      <c r="M33" s="6">
+        <v>3516</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2251,8 +2265,8 @@
       <c r="H34" s="4">
         <v>872</v>
       </c>
-      <c r="I34" s="4">
-        <v>1.0109999999999999</v>
+      <c r="I34" s="5">
+        <v>1011</v>
       </c>
       <c r="J34" s="4">
         <v>71</v>
@@ -2263,8 +2277,8 @@
       <c r="L34" s="4">
         <v>23</v>
       </c>
-      <c r="M34" s="5">
-        <v>2.57</v>
+      <c r="M34" s="6">
+        <v>2570</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2302,8 +2316,8 @@
       <c r="L35" s="4">
         <v>13</v>
       </c>
-      <c r="M35" s="5">
-        <v>2.202</v>
+      <c r="M35" s="6">
+        <v>2202</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2343,8 +2357,8 @@
       <c r="L36" s="4">
         <v>19</v>
       </c>
-      <c r="M36" s="5">
-        <v>2.532</v>
+      <c r="M36" s="6">
+        <v>2532</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2382,8 +2396,8 @@
       <c r="L37" s="4">
         <v>21</v>
       </c>
-      <c r="M37" s="5">
-        <v>1.9750000000000001</v>
+      <c r="M37" s="6">
+        <v>1975</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2423,8 +2437,8 @@
       <c r="L38" s="4">
         <v>20</v>
       </c>
-      <c r="M38" s="5">
-        <v>2.1669999999999998</v>
+      <c r="M38" s="6">
+        <v>2167</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2462,8 +2476,8 @@
       <c r="L39" s="4">
         <v>23</v>
       </c>
-      <c r="M39" s="5">
-        <v>1.877</v>
+      <c r="M39" s="6">
+        <v>1877</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2503,8 +2517,8 @@
       <c r="L40" s="4">
         <v>17</v>
       </c>
-      <c r="M40" s="5">
-        <v>2.0270000000000001</v>
+      <c r="M40" s="6">
+        <v>2027</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2542,8 +2556,8 @@
       <c r="L41" s="4">
         <v>13</v>
       </c>
-      <c r="M41" s="5">
-        <v>1.921</v>
+      <c r="M41" s="6">
+        <v>1921</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2583,8 +2597,8 @@
       <c r="L42" s="4">
         <v>14</v>
       </c>
-      <c r="M42" s="5">
-        <v>1.946</v>
+      <c r="M42" s="6">
+        <v>1946</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2622,8 +2636,8 @@
       <c r="L43" s="4">
         <v>19</v>
       </c>
-      <c r="M43" s="5">
-        <v>1.792</v>
+      <c r="M43" s="6">
+        <v>1792</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2663,8 +2677,8 @@
       <c r="L44" s="4">
         <v>19</v>
       </c>
-      <c r="M44" s="5">
-        <v>1.8160000000000001</v>
+      <c r="M44" s="6">
+        <v>1816</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2702,8 +2716,8 @@
       <c r="L45" s="4">
         <v>11</v>
       </c>
-      <c r="M45" s="5">
-        <v>1.6919999999999999</v>
+      <c r="M45" s="6">
+        <v>1692</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2743,8 +2757,8 @@
       <c r="L46" s="4">
         <v>14</v>
       </c>
-      <c r="M46" s="5">
-        <v>1.716</v>
+      <c r="M46" s="6">
+        <v>1716</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2782,8 +2796,8 @@
       <c r="L47" s="4">
         <v>14</v>
       </c>
-      <c r="M47" s="5">
-        <v>1.653</v>
+      <c r="M47" s="6">
+        <v>1653</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2823,8 +2837,8 @@
       <c r="L48" s="4">
         <v>9</v>
       </c>
-      <c r="M48" s="5">
-        <v>1.367</v>
+      <c r="M48" s="6">
+        <v>1367</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2862,8 +2876,8 @@
       <c r="L49" s="4">
         <v>6</v>
       </c>
-      <c r="M49" s="5">
-        <v>1.3979999999999999</v>
+      <c r="M49" s="6">
+        <v>1398</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2903,8 +2917,8 @@
       <c r="L50" s="4">
         <v>7</v>
       </c>
-      <c r="M50" s="5">
-        <v>1.141</v>
+      <c r="M50" s="6">
+        <v>1141</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2942,8 +2956,8 @@
       <c r="L51" s="4">
         <v>4</v>
       </c>
-      <c r="M51" s="5">
-        <v>1.179</v>
+      <c r="M51" s="6">
+        <v>1179</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2983,7 +2997,7 @@
       <c r="L52" s="4">
         <v>4</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="7">
         <v>695</v>
       </c>
     </row>
@@ -3022,7 +3036,7 @@
       <c r="L53" s="4">
         <v>7</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="7">
         <v>925</v>
       </c>
     </row>
@@ -3063,7 +3077,7 @@
       <c r="L54" s="4">
         <v>4</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="7">
         <v>864</v>
       </c>
     </row>
@@ -3102,54 +3116,54 @@
       <c r="L55" s="4">
         <v>8</v>
       </c>
-      <c r="M55" s="5">
-        <v>1.32</v>
+      <c r="M55" s="6">
+        <v>1320</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>2.3319999999999999</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1.853</v>
-      </c>
-      <c r="E56" s="5">
-        <v>8.1029999999999998</v>
-      </c>
-      <c r="F56" s="5">
-        <v>3.4</v>
-      </c>
-      <c r="G56" s="5">
-        <v>7.5540000000000003</v>
-      </c>
-      <c r="H56" s="5">
-        <v>13.113</v>
-      </c>
-      <c r="I56" s="5">
-        <v>6.6829999999999998</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="B56" s="8"/>
+      <c r="C56" s="6">
+        <v>2332</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1853</v>
+      </c>
+      <c r="E56" s="6">
+        <v>8103</v>
+      </c>
+      <c r="F56" s="6">
+        <v>3400</v>
+      </c>
+      <c r="G56" s="6">
+        <v>7554</v>
+      </c>
+      <c r="H56" s="6">
+        <v>13113</v>
+      </c>
+      <c r="I56" s="6">
+        <v>6683</v>
+      </c>
+      <c r="J56" s="7">
         <v>637</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="7">
         <v>22</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="7">
         <v>341</v>
       </c>
-      <c r="M56" s="5">
-        <v>44.037999999999997</v>
+      <c r="M56" s="6">
+        <v>44038</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3221,7 +3235,7 @@
       <c r="L58" s="4">
         <v>9</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="7">
         <v>621</v>
       </c>
     </row>
@@ -3260,7 +3274,7 @@
       <c r="L59" s="4">
         <v>8</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="7">
         <v>574</v>
       </c>
     </row>
@@ -3301,7 +3315,7 @@
       <c r="L60" s="4">
         <v>4</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="7">
         <v>506</v>
       </c>
     </row>
@@ -3340,7 +3354,7 @@
       <c r="L61" s="4">
         <v>6</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="7">
         <v>329</v>
       </c>
     </row>
@@ -3381,7 +3395,7 @@
       <c r="L62" s="4">
         <v>7</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="7">
         <v>346</v>
       </c>
     </row>
@@ -3420,7 +3434,7 @@
       <c r="L63" s="4">
         <v>3</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="7">
         <v>227</v>
       </c>
     </row>
@@ -3461,7 +3475,7 @@
       <c r="L64" s="4">
         <v>8</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="7">
         <v>269</v>
       </c>
     </row>
@@ -3500,7 +3514,7 @@
       <c r="L65" s="4">
         <v>3</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="7">
         <v>211</v>
       </c>
     </row>
@@ -3541,7 +3555,7 @@
       <c r="L66" s="4">
         <v>7</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="7">
         <v>314</v>
       </c>
     </row>
@@ -3580,7 +3594,7 @@
       <c r="L67" s="4">
         <v>3</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="7">
         <v>253</v>
       </c>
     </row>
@@ -3621,7 +3635,7 @@
       <c r="L68" s="4">
         <v>3</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="7">
         <v>276</v>
       </c>
     </row>
@@ -3660,7 +3674,7 @@
       <c r="L69" s="4">
         <v>5</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="7">
         <v>272</v>
       </c>
     </row>
@@ -3701,7 +3715,7 @@
       <c r="L70" s="4">
         <v>3</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="7">
         <v>269</v>
       </c>
     </row>
@@ -3740,7 +3754,7 @@
       <c r="L71" s="4">
         <v>1</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="7">
         <v>270</v>
       </c>
     </row>
@@ -3781,7 +3795,7 @@
       <c r="L72" s="4">
         <v>3</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="7">
         <v>335</v>
       </c>
     </row>
@@ -3820,7 +3834,7 @@
       <c r="L73" s="4">
         <v>2</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="7">
         <v>277</v>
       </c>
     </row>
@@ -3861,7 +3875,7 @@
       <c r="L74" s="4">
         <v>1</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="7">
         <v>223</v>
       </c>
     </row>
@@ -3900,7 +3914,7 @@
       <c r="L75" s="4">
         <v>4</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="7">
         <v>221</v>
       </c>
     </row>
@@ -3941,7 +3955,7 @@
       <c r="L76" s="4">
         <v>3</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="7">
         <v>196</v>
       </c>
     </row>
@@ -3980,7 +3994,7 @@
       <c r="L77" s="4">
         <v>3</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="7">
         <v>202</v>
       </c>
     </row>
@@ -4021,7 +4035,7 @@
       <c r="L78" s="4">
         <v>1</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="7">
         <v>162</v>
       </c>
     </row>
@@ -4060,7 +4074,7 @@
       <c r="L79" s="4">
         <v>3</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="7">
         <v>222</v>
       </c>
     </row>
@@ -4101,7 +4115,7 @@
       <c r="L80" s="4">
         <v>1</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="7">
         <v>194</v>
       </c>
     </row>
@@ -4140,7 +4154,7 @@
       <c r="L81" s="4">
         <v>5</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="7">
         <v>326</v>
       </c>
     </row>
@@ -4148,46 +4162,46 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="8"/>
+      <c r="C82" s="7">
         <v>469</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="7">
         <v>386</v>
       </c>
-      <c r="E82" s="5">
-        <v>1.4690000000000001</v>
-      </c>
-      <c r="F82" s="5">
+      <c r="E82" s="6">
+        <v>1469</v>
+      </c>
+      <c r="F82" s="7">
         <v>632</v>
       </c>
-      <c r="G82" s="5">
-        <v>1.17</v>
-      </c>
-      <c r="H82" s="5">
-        <v>1.972</v>
-      </c>
-      <c r="I82" s="5">
+      <c r="G82" s="6">
+        <v>1170</v>
+      </c>
+      <c r="H82" s="6">
+        <v>1972</v>
+      </c>
+      <c r="I82" s="7">
         <v>848</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="7">
         <v>52</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="7">
         <v>1</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="7">
         <v>96</v>
       </c>
-      <c r="M82" s="5">
-        <v>7.0949999999999998</v>
+      <c r="M82" s="6">
+        <v>7095</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4241,11 +4255,11 @@
       <c r="F84" s="4">
         <v>5</v>
       </c>
-      <c r="G84" s="4">
-        <v>3.2320000000000002</v>
-      </c>
-      <c r="H84" s="4">
-        <v>4.5759999999999996</v>
+      <c r="G84" s="5">
+        <v>3232</v>
+      </c>
+      <c r="H84" s="5">
+        <v>4576</v>
       </c>
       <c r="I84" s="4">
         <v>826</v>
@@ -4259,8 +4273,8 @@
       <c r="L84" s="4">
         <v>113</v>
       </c>
-      <c r="M84" s="5">
-        <v>8.9190000000000005</v>
+      <c r="M84" s="6">
+        <v>8919</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4280,14 +4294,14 @@
       <c r="F85" s="4">
         <v>2</v>
       </c>
-      <c r="G85" s="4">
-        <v>2.7519999999999998</v>
-      </c>
-      <c r="H85" s="4">
-        <v>4.6669999999999998</v>
-      </c>
-      <c r="I85" s="4">
-        <v>1.1599999999999999</v>
+      <c r="G85" s="5">
+        <v>2752</v>
+      </c>
+      <c r="H85" s="5">
+        <v>4667</v>
+      </c>
+      <c r="I85" s="5">
+        <v>1160</v>
       </c>
       <c r="J85" s="4">
         <v>7</v>
@@ -4298,8 +4312,8 @@
       <c r="L85" s="4">
         <v>45</v>
       </c>
-      <c r="M85" s="5">
-        <v>8.8490000000000002</v>
+      <c r="M85" s="6">
+        <v>8849</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4321,14 +4335,14 @@
       <c r="F86" s="4">
         <v>94</v>
       </c>
-      <c r="G86" s="4">
-        <v>1.889</v>
-      </c>
-      <c r="H86" s="4">
-        <v>1.456</v>
-      </c>
-      <c r="I86" s="4">
-        <v>1.8140000000000001</v>
+      <c r="G86" s="5">
+        <v>1889</v>
+      </c>
+      <c r="H86" s="5">
+        <v>1456</v>
+      </c>
+      <c r="I86" s="5">
+        <v>1814</v>
       </c>
       <c r="J86" s="4">
         <v>157</v>
@@ -4339,8 +4353,8 @@
       <c r="L86" s="4">
         <v>36</v>
       </c>
-      <c r="M86" s="5">
-        <v>5.6580000000000004</v>
+      <c r="M86" s="6">
+        <v>5658</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4360,14 +4374,14 @@
       <c r="F87" s="4">
         <v>118</v>
       </c>
-      <c r="G87" s="4">
-        <v>1.5780000000000001</v>
-      </c>
-      <c r="H87" s="4">
-        <v>1.07</v>
-      </c>
-      <c r="I87" s="4">
-        <v>2.2109999999999999</v>
+      <c r="G87" s="5">
+        <v>1578</v>
+      </c>
+      <c r="H87" s="5">
+        <v>1070</v>
+      </c>
+      <c r="I87" s="5">
+        <v>2211</v>
       </c>
       <c r="J87" s="4">
         <v>180</v>
@@ -4378,8 +4392,8 @@
       <c r="L87" s="4">
         <v>70</v>
       </c>
-      <c r="M87" s="5">
-        <v>5.718</v>
+      <c r="M87" s="6">
+        <v>5718</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4404,11 +4418,11 @@
       <c r="G88" s="4">
         <v>871</v>
       </c>
-      <c r="H88" s="4">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="I88" s="4">
-        <v>1.496</v>
+      <c r="H88" s="5">
+        <v>1219</v>
+      </c>
+      <c r="I88" s="5">
+        <v>1496</v>
       </c>
       <c r="J88" s="4">
         <v>229</v>
@@ -4419,8 +4433,8 @@
       <c r="L88" s="4">
         <v>35</v>
       </c>
-      <c r="M88" s="5">
-        <v>5.0460000000000003</v>
+      <c r="M88" s="6">
+        <v>5046</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4437,8 +4451,8 @@
       <c r="E89" s="4">
         <v>351</v>
       </c>
-      <c r="F89" s="4">
-        <v>1.3069999999999999</v>
+      <c r="F89" s="5">
+        <v>1307</v>
       </c>
       <c r="G89" s="4">
         <v>575</v>
@@ -4446,8 +4460,8 @@
       <c r="H89" s="4">
         <v>905</v>
       </c>
-      <c r="I89" s="4">
-        <v>1.337</v>
+      <c r="I89" s="5">
+        <v>1337</v>
       </c>
       <c r="J89" s="4">
         <v>154</v>
@@ -4458,8 +4472,8 @@
       <c r="L89" s="4">
         <v>54</v>
       </c>
-      <c r="M89" s="5">
-        <v>5.1429999999999998</v>
+      <c r="M89" s="6">
+        <v>5143</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4484,8 +4498,8 @@
       <c r="G90" s="4">
         <v>687</v>
       </c>
-      <c r="H90" s="4">
-        <v>1.3560000000000001</v>
+      <c r="H90" s="5">
+        <v>1356</v>
       </c>
       <c r="I90" s="4">
         <v>992</v>
@@ -4499,8 +4513,8 @@
       <c r="L90" s="4">
         <v>47</v>
       </c>
-      <c r="M90" s="5">
-        <v>4.8380000000000001</v>
+      <c r="M90" s="6">
+        <v>4838</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4514,8 +4528,8 @@
       <c r="D91" s="4">
         <v>306</v>
       </c>
-      <c r="E91" s="4">
-        <v>1.595</v>
+      <c r="E91" s="5">
+        <v>1595</v>
       </c>
       <c r="F91" s="4">
         <v>761</v>
@@ -4538,8 +4552,8 @@
       <c r="L91" s="4">
         <v>47</v>
       </c>
-      <c r="M91" s="5">
-        <v>4.726</v>
+      <c r="M91" s="6">
+        <v>4726</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4564,8 +4578,8 @@
       <c r="G92" s="4">
         <v>966</v>
       </c>
-      <c r="H92" s="4">
-        <v>1.274</v>
+      <c r="H92" s="5">
+        <v>1274</v>
       </c>
       <c r="I92" s="4">
         <v>618</v>
@@ -4579,8 +4593,8 @@
       <c r="L92" s="4">
         <v>32</v>
       </c>
-      <c r="M92" s="5">
-        <v>4.4820000000000002</v>
+      <c r="M92" s="6">
+        <v>4482</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4594,8 +4608,8 @@
       <c r="D93" s="4">
         <v>257</v>
       </c>
-      <c r="E93" s="4">
-        <v>1.9330000000000001</v>
+      <c r="E93" s="5">
+        <v>1933</v>
       </c>
       <c r="F93" s="4">
         <v>451</v>
@@ -4618,8 +4632,8 @@
       <c r="L93" s="4">
         <v>46</v>
       </c>
-      <c r="M93" s="5">
-        <v>4.5339999999999998</v>
+      <c r="M93" s="6">
+        <v>4534</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4644,8 +4658,8 @@
       <c r="G94" s="4">
         <v>862</v>
       </c>
-      <c r="H94" s="4">
-        <v>1.052</v>
+      <c r="H94" s="5">
+        <v>1052</v>
       </c>
       <c r="I94" s="4">
         <v>471</v>
@@ -4659,8 +4673,8 @@
       <c r="L94" s="4">
         <v>40</v>
       </c>
-      <c r="M94" s="5">
-        <v>3.9409999999999998</v>
+      <c r="M94" s="6">
+        <v>3941</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4674,8 +4688,8 @@
       <c r="D95" s="4">
         <v>281</v>
       </c>
-      <c r="E95" s="4">
-        <v>1.84</v>
+      <c r="E95" s="5">
+        <v>1840</v>
       </c>
       <c r="F95" s="4">
         <v>424</v>
@@ -4698,8 +4712,8 @@
       <c r="L95" s="4">
         <v>46</v>
       </c>
-      <c r="M95" s="5">
-        <v>3.87</v>
+      <c r="M95" s="6">
+        <v>3870</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4739,8 +4753,8 @@
       <c r="L96" s="4">
         <v>44</v>
       </c>
-      <c r="M96" s="5">
-        <v>3.42</v>
+      <c r="M96" s="6">
+        <v>3420</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4754,8 +4768,8 @@
       <c r="D97" s="4">
         <v>392</v>
       </c>
-      <c r="E97" s="4">
-        <v>1.613</v>
+      <c r="E97" s="5">
+        <v>1613</v>
       </c>
       <c r="F97" s="4">
         <v>345</v>
@@ -4778,8 +4792,8 @@
       <c r="L97" s="4">
         <v>35</v>
       </c>
-      <c r="M97" s="5">
-        <v>3.4060000000000001</v>
+      <c r="M97" s="6">
+        <v>3406</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4795,8 +4809,8 @@
       <c r="D98" s="4">
         <v>42</v>
       </c>
-      <c r="E98" s="4">
-        <v>1</v>
+      <c r="E98" s="5">
+        <v>1000</v>
       </c>
       <c r="F98" s="4">
         <v>447</v>
@@ -4819,8 +4833,8 @@
       <c r="L98" s="4">
         <v>40</v>
       </c>
-      <c r="M98" s="5">
-        <v>3.0870000000000002</v>
+      <c r="M98" s="6">
+        <v>3087</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4834,8 +4848,8 @@
       <c r="D99" s="4">
         <v>472</v>
       </c>
-      <c r="E99" s="4">
-        <v>1.4790000000000001</v>
+      <c r="E99" s="5">
+        <v>1479</v>
       </c>
       <c r="F99" s="4">
         <v>222</v>
@@ -4858,8 +4872,8 @@
       <c r="L99" s="4">
         <v>43</v>
       </c>
-      <c r="M99" s="5">
-        <v>3.0910000000000002</v>
+      <c r="M99" s="6">
+        <v>3091</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4899,8 +4913,8 @@
       <c r="L100" s="4">
         <v>21</v>
       </c>
-      <c r="M100" s="5">
-        <v>2.262</v>
+      <c r="M100" s="6">
+        <v>2262</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4914,8 +4928,8 @@
       <c r="D101" s="4">
         <v>453</v>
       </c>
-      <c r="E101" s="4">
-        <v>1.089</v>
+      <c r="E101" s="5">
+        <v>1089</v>
       </c>
       <c r="F101" s="4">
         <v>115</v>
@@ -4938,8 +4952,8 @@
       <c r="L101" s="4">
         <v>33</v>
       </c>
-      <c r="M101" s="5">
-        <v>2.4820000000000002</v>
+      <c r="M101" s="6">
+        <v>2482</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4979,8 +4993,8 @@
       <c r="L102" s="4">
         <v>27</v>
       </c>
-      <c r="M102" s="5">
-        <v>1.8009999999999999</v>
+      <c r="M102" s="6">
+        <v>1801</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -5018,8 +5032,8 @@
       <c r="L103" s="4">
         <v>17</v>
       </c>
-      <c r="M103" s="5">
-        <v>1.972</v>
+      <c r="M103" s="6">
+        <v>1972</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5059,8 +5073,8 @@
       <c r="L104" s="4">
         <v>16</v>
       </c>
-      <c r="M104" s="5">
-        <v>1.478</v>
+      <c r="M104" s="6">
+        <v>1478</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5098,8 +5112,8 @@
       <c r="L105" s="4">
         <v>29</v>
       </c>
-      <c r="M105" s="5">
-        <v>1.7310000000000001</v>
+      <c r="M105" s="6">
+        <v>1731</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5139,8 +5153,8 @@
       <c r="L106" s="4">
         <v>29</v>
       </c>
-      <c r="M106" s="5">
-        <v>1.708</v>
+      <c r="M106" s="6">
+        <v>1708</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5148,8 +5162,8 @@
       <c r="B107" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="4">
-        <v>1.92</v>
+      <c r="C107" s="5">
+        <v>1920</v>
       </c>
       <c r="D107" s="4">
         <v>445</v>
@@ -5178,54 +5192,54 @@
       <c r="L107" s="4">
         <v>47</v>
       </c>
-      <c r="M107" s="5">
-        <v>2.7850000000000001</v>
+      <c r="M107" s="6">
+        <v>2785</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>5.6909999999999998</v>
-      </c>
-      <c r="D108" s="5">
-        <v>5.3390000000000004</v>
-      </c>
-      <c r="E108" s="5">
-        <v>19.567</v>
-      </c>
-      <c r="F108" s="5">
-        <v>8.3849999999999998</v>
-      </c>
-      <c r="G108" s="5">
-        <v>18.055</v>
-      </c>
-      <c r="H108" s="5">
-        <v>22.268000000000001</v>
-      </c>
-      <c r="I108" s="5">
-        <v>13.21</v>
-      </c>
-      <c r="J108" s="5">
-        <v>1.357</v>
-      </c>
-      <c r="K108" s="5">
+      <c r="B108" s="8"/>
+      <c r="C108" s="6">
+        <v>5691</v>
+      </c>
+      <c r="D108" s="6">
+        <v>5339</v>
+      </c>
+      <c r="E108" s="6">
+        <v>19567</v>
+      </c>
+      <c r="F108" s="6">
+        <v>8385</v>
+      </c>
+      <c r="G108" s="6">
+        <v>18055</v>
+      </c>
+      <c r="H108" s="6">
+        <v>22268</v>
+      </c>
+      <c r="I108" s="6">
+        <v>13210</v>
+      </c>
+      <c r="J108" s="6">
+        <v>1357</v>
+      </c>
+      <c r="K108" s="7">
         <v>83</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="7">
         <v>992</v>
       </c>
-      <c r="M108" s="5">
-        <v>94.947000000000003</v>
+      <c r="M108" s="6">
+        <v>94947</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5282,8 +5296,8 @@
       <c r="G110" s="4">
         <v>914</v>
       </c>
-      <c r="H110" s="4">
-        <v>1.0620000000000001</v>
+      <c r="H110" s="5">
+        <v>1062</v>
       </c>
       <c r="I110" s="4">
         <v>218</v>
@@ -5297,8 +5311,8 @@
       <c r="L110" s="4">
         <v>48</v>
       </c>
-      <c r="M110" s="5">
-        <v>2.3370000000000002</v>
+      <c r="M110" s="6">
+        <v>2337</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5321,8 +5335,8 @@
       <c r="G111" s="4">
         <v>706</v>
       </c>
-      <c r="H111" s="4">
-        <v>1.1120000000000001</v>
+      <c r="H111" s="5">
+        <v>1112</v>
       </c>
       <c r="I111" s="4">
         <v>272</v>
@@ -5336,8 +5350,8 @@
       <c r="L111" s="4">
         <v>28</v>
       </c>
-      <c r="M111" s="5">
-        <v>2.238</v>
+      <c r="M111" s="6">
+        <v>2238</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5377,8 +5391,8 @@
       <c r="L112" s="4">
         <v>18</v>
       </c>
-      <c r="M112" s="5">
-        <v>1.571</v>
+      <c r="M112" s="6">
+        <v>1571</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5416,8 +5430,8 @@
       <c r="L113" s="4">
         <v>10</v>
       </c>
-      <c r="M113" s="5">
-        <v>1.4359999999999999</v>
+      <c r="M113" s="6">
+        <v>1436</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5457,8 +5471,8 @@
       <c r="L114" s="4">
         <v>23</v>
       </c>
-      <c r="M114" s="5">
-        <v>1.5389999999999999</v>
+      <c r="M114" s="6">
+        <v>1539</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5496,8 +5510,8 @@
       <c r="L115" s="4">
         <v>17</v>
       </c>
-      <c r="M115" s="5">
-        <v>1.2749999999999999</v>
+      <c r="M115" s="6">
+        <v>1275</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5537,8 +5551,8 @@
       <c r="L116" s="4">
         <v>44</v>
       </c>
-      <c r="M116" s="5">
-        <v>1.423</v>
+      <c r="M116" s="6">
+        <v>1423</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5576,8 +5590,8 @@
       <c r="L117" s="4">
         <v>22</v>
       </c>
-      <c r="M117" s="5">
-        <v>1.1479999999999999</v>
+      <c r="M117" s="6">
+        <v>1148</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5617,8 +5631,8 @@
       <c r="L118" s="4">
         <v>41</v>
       </c>
-      <c r="M118" s="5">
-        <v>1.228</v>
+      <c r="M118" s="6">
+        <v>1228</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5656,8 +5670,8 @@
       <c r="L119" s="4">
         <v>19</v>
       </c>
-      <c r="M119" s="5">
-        <v>1.095</v>
+      <c r="M119" s="6">
+        <v>1095</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5697,8 +5711,8 @@
       <c r="L120" s="4">
         <v>56</v>
       </c>
-      <c r="M120" s="5">
-        <v>1.129</v>
+      <c r="M120" s="6">
+        <v>1129</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5736,8 +5750,8 @@
       <c r="L121" s="4">
         <v>28</v>
       </c>
-      <c r="M121" s="5">
-        <v>1.07</v>
+      <c r="M121" s="6">
+        <v>1070</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5777,8 +5791,8 @@
       <c r="L122" s="4">
         <v>35</v>
       </c>
-      <c r="M122" s="5">
-        <v>1.036</v>
+      <c r="M122" s="6">
+        <v>1036</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5816,7 +5830,7 @@
       <c r="L123" s="4">
         <v>29</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="7">
         <v>978</v>
       </c>
     </row>
@@ -5857,8 +5871,8 @@
       <c r="L124" s="4">
         <v>37</v>
       </c>
-      <c r="M124" s="5">
-        <v>1.0069999999999999</v>
+      <c r="M124" s="6">
+        <v>1007</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5896,7 +5910,7 @@
       <c r="L125" s="4">
         <v>17</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="7">
         <v>943</v>
       </c>
     </row>
@@ -5937,7 +5951,7 @@
       <c r="L126" s="4">
         <v>18</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="7">
         <v>816</v>
       </c>
     </row>
@@ -5976,7 +5990,7 @@
       <c r="L127" s="4">
         <v>14</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="7">
         <v>780</v>
       </c>
     </row>
@@ -6017,7 +6031,7 @@
       <c r="L128" s="4">
         <v>7</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="7">
         <v>654</v>
       </c>
     </row>
@@ -6056,7 +6070,7 @@
       <c r="L129" s="4">
         <v>9</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="7">
         <v>625</v>
       </c>
     </row>
@@ -6097,7 +6111,7 @@
       <c r="L130" s="4">
         <v>3</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="7">
         <v>443</v>
       </c>
     </row>
@@ -6136,7 +6150,7 @@
       <c r="L131" s="4">
         <v>10</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="7">
         <v>492</v>
       </c>
     </row>
@@ -6177,7 +6191,7 @@
       <c r="L132" s="4">
         <v>4</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="7">
         <v>440</v>
       </c>
     </row>
@@ -6216,7 +6230,7 @@
       <c r="L133" s="4">
         <v>8</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="7">
         <v>704</v>
       </c>
     </row>
@@ -6224,46 +6238,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>1.274</v>
-      </c>
-      <c r="D134" s="5">
-        <v>1.415</v>
-      </c>
-      <c r="E134" s="5">
-        <v>5.2539999999999996</v>
-      </c>
-      <c r="F134" s="5">
-        <v>2.75</v>
-      </c>
-      <c r="G134" s="5">
-        <v>5.3230000000000004</v>
-      </c>
-      <c r="H134" s="5">
-        <v>6.1870000000000003</v>
-      </c>
-      <c r="I134" s="5">
-        <v>3.3319999999999999</v>
-      </c>
-      <c r="J134" s="5">
+      <c r="B134" s="8"/>
+      <c r="C134" s="6">
+        <v>1274</v>
+      </c>
+      <c r="D134" s="6">
+        <v>1415</v>
+      </c>
+      <c r="E134" s="6">
+        <v>5254</v>
+      </c>
+      <c r="F134" s="6">
+        <v>2750</v>
+      </c>
+      <c r="G134" s="6">
+        <v>5323</v>
+      </c>
+      <c r="H134" s="6">
+        <v>6187</v>
+      </c>
+      <c r="I134" s="6">
+        <v>3332</v>
+      </c>
+      <c r="J134" s="7">
         <v>307</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="7">
         <v>20</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="7">
         <v>545</v>
       </c>
-      <c r="M134" s="5">
-        <v>26.407</v>
+      <c r="M134" s="6">
+        <v>26407</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6320,8 +6334,8 @@
       <c r="G136" s="4">
         <v>664</v>
       </c>
-      <c r="H136" s="4">
-        <v>1.05</v>
+      <c r="H136" s="5">
+        <v>1050</v>
       </c>
       <c r="I136" s="4">
         <v>208</v>
@@ -6335,8 +6349,8 @@
       <c r="L136" s="4">
         <v>26</v>
       </c>
-      <c r="M136" s="5">
-        <v>1.978</v>
+      <c r="M136" s="6">
+        <v>1978</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6359,8 +6373,8 @@
       <c r="G137" s="4">
         <v>602</v>
       </c>
-      <c r="H137" s="4">
-        <v>1.0389999999999999</v>
+      <c r="H137" s="5">
+        <v>1039</v>
       </c>
       <c r="I137" s="4">
         <v>312</v>
@@ -6374,8 +6388,8 @@
       <c r="L137" s="4">
         <v>12</v>
       </c>
-      <c r="M137" s="5">
-        <v>1.998</v>
+      <c r="M137" s="6">
+        <v>1998</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6415,8 +6429,8 @@
       <c r="L138" s="4">
         <v>2</v>
       </c>
-      <c r="M138" s="5">
-        <v>1.36</v>
+      <c r="M138" s="6">
+        <v>1360</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6454,8 +6468,8 @@
       <c r="L139" s="4">
         <v>7</v>
       </c>
-      <c r="M139" s="5">
-        <v>1.23</v>
+      <c r="M139" s="6">
+        <v>1230</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6495,8 +6509,8 @@
       <c r="L140" s="4">
         <v>6</v>
       </c>
-      <c r="M140" s="5">
-        <v>1.18</v>
+      <c r="M140" s="6">
+        <v>1180</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6534,8 +6548,8 @@
       <c r="L141" s="4">
         <v>7</v>
       </c>
-      <c r="M141" s="5">
-        <v>1.0169999999999999</v>
+      <c r="M141" s="6">
+        <v>1017</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6575,8 +6589,8 @@
       <c r="L142" s="4">
         <v>9</v>
       </c>
-      <c r="M142" s="5">
-        <v>1.093</v>
+      <c r="M142" s="6">
+        <v>1093</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6614,7 +6628,7 @@
       <c r="L143" s="4">
         <v>5</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="7">
         <v>938</v>
       </c>
     </row>
@@ -6655,8 +6669,8 @@
       <c r="L144" s="4">
         <v>10</v>
       </c>
-      <c r="M144" s="5">
-        <v>1.1180000000000001</v>
+      <c r="M144" s="6">
+        <v>1118</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6694,7 +6708,7 @@
       <c r="L145" s="4">
         <v>11</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="7">
         <v>969</v>
       </c>
     </row>
@@ -6735,7 +6749,7 @@
       <c r="L146" s="4">
         <v>7</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="7">
         <v>978</v>
       </c>
     </row>
@@ -6774,7 +6788,7 @@
       <c r="L147" s="4">
         <v>7</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="7">
         <v>906</v>
       </c>
     </row>
@@ -6815,7 +6829,7 @@
       <c r="L148" s="4">
         <v>7</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="7">
         <v>880</v>
       </c>
     </row>
@@ -6854,7 +6868,7 @@
       <c r="L149" s="4">
         <v>6</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="7">
         <v>864</v>
       </c>
     </row>
@@ -6895,7 +6909,7 @@
       <c r="L150" s="4">
         <v>7</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="7">
         <v>882</v>
       </c>
     </row>
@@ -6934,7 +6948,7 @@
       <c r="L151" s="4">
         <v>8</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="7">
         <v>726</v>
       </c>
     </row>
@@ -6975,7 +6989,7 @@
       <c r="L152" s="4">
         <v>10</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="7">
         <v>639</v>
       </c>
     </row>
@@ -7014,7 +7028,7 @@
       <c r="L153" s="4">
         <v>12</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="7">
         <v>679</v>
       </c>
     </row>
@@ -7055,7 +7069,7 @@
       <c r="L154" s="4">
         <v>5</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="7">
         <v>529</v>
       </c>
     </row>
@@ -7094,7 +7108,7 @@
       <c r="L155" s="4">
         <v>5</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="7">
         <v>554</v>
       </c>
     </row>
@@ -7135,7 +7149,7 @@
       <c r="L156" s="4">
         <v>1</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="7">
         <v>383</v>
       </c>
     </row>
@@ -7174,7 +7188,7 @@
       <c r="L157" s="4">
         <v>7</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="7">
         <v>482</v>
       </c>
     </row>
@@ -7215,7 +7229,7 @@
       <c r="L158" s="4">
         <v>8</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="7">
         <v>525</v>
       </c>
     </row>
@@ -7254,7 +7268,7 @@
       <c r="L159" s="4">
         <v>5</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="7">
         <v>838</v>
       </c>
     </row>
@@ -7262,46 +7276,46 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="D160" s="5">
+      <c r="B160" s="8"/>
+      <c r="C160" s="6">
+        <v>1205</v>
+      </c>
+      <c r="D160" s="7">
         <v>974</v>
       </c>
-      <c r="E160" s="5">
-        <v>5.1360000000000001</v>
-      </c>
-      <c r="F160" s="5">
-        <v>2.3180000000000001</v>
-      </c>
-      <c r="G160" s="5">
-        <v>4.0629999999999997</v>
-      </c>
-      <c r="H160" s="5">
-        <v>5.4050000000000002</v>
-      </c>
-      <c r="I160" s="5">
-        <v>3.1309999999999998</v>
-      </c>
-      <c r="J160" s="5">
+      <c r="E160" s="6">
+        <v>5136</v>
+      </c>
+      <c r="F160" s="6">
+        <v>2318</v>
+      </c>
+      <c r="G160" s="6">
+        <v>4063</v>
+      </c>
+      <c r="H160" s="6">
+        <v>5405</v>
+      </c>
+      <c r="I160" s="6">
+        <v>3131</v>
+      </c>
+      <c r="J160" s="7">
         <v>295</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="7">
         <v>29</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="7">
         <v>190</v>
       </c>
-      <c r="M160" s="5">
-        <v>22.745999999999999</v>
+      <c r="M160" s="6">
+        <v>22746</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7355,14 +7369,14 @@
       <c r="F162" s="4">
         <v>65</v>
       </c>
-      <c r="G162" s="4">
-        <v>18.625</v>
-      </c>
-      <c r="H162" s="4">
-        <v>30.109000000000002</v>
-      </c>
-      <c r="I162" s="4">
-        <v>5.2889999999999997</v>
+      <c r="G162" s="5">
+        <v>18625</v>
+      </c>
+      <c r="H162" s="5">
+        <v>30109</v>
+      </c>
+      <c r="I162" s="5">
+        <v>5289</v>
       </c>
       <c r="J162" s="4">
         <v>50</v>
@@ -7373,8 +7387,8 @@
       <c r="L162" s="4">
         <v>781</v>
       </c>
-      <c r="M162" s="5">
-        <v>55.991</v>
+      <c r="M162" s="6">
+        <v>55991</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7394,14 +7408,14 @@
       <c r="F163" s="4">
         <v>19</v>
       </c>
-      <c r="G163" s="4">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="H163" s="4">
-        <v>30.228999999999999</v>
-      </c>
-      <c r="I163" s="4">
-        <v>8.3209999999999997</v>
+      <c r="G163" s="5">
+        <v>16010</v>
+      </c>
+      <c r="H163" s="5">
+        <v>30229</v>
+      </c>
+      <c r="I163" s="5">
+        <v>8321</v>
       </c>
       <c r="J163" s="4">
         <v>56</v>
@@ -7412,8 +7426,8 @@
       <c r="L163" s="4">
         <v>531</v>
       </c>
-      <c r="M163" s="5">
-        <v>56.600999999999999</v>
+      <c r="M163" s="6">
+        <v>56601</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7435,14 +7449,14 @@
       <c r="F164" s="4">
         <v>957</v>
       </c>
-      <c r="G164" s="4">
-        <v>12.909000000000001</v>
-      </c>
-      <c r="H164" s="4">
-        <v>10.413</v>
-      </c>
-      <c r="I164" s="4">
-        <v>11.428000000000001</v>
+      <c r="G164" s="5">
+        <v>12909</v>
+      </c>
+      <c r="H164" s="5">
+        <v>10413</v>
+      </c>
+      <c r="I164" s="5">
+        <v>11428</v>
       </c>
       <c r="J164" s="4">
         <v>919</v>
@@ -7453,8 +7467,8 @@
       <c r="L164" s="4">
         <v>441</v>
       </c>
-      <c r="M164" s="5">
-        <v>37.896999999999998</v>
+      <c r="M164" s="6">
+        <v>37897</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7465,26 +7479,26 @@
       <c r="C165" s="4">
         <v>71</v>
       </c>
-      <c r="D165" s="4">
-        <v>1.032</v>
-      </c>
-      <c r="E165" s="4">
-        <v>2.2170000000000001</v>
+      <c r="D165" s="5">
+        <v>1032</v>
+      </c>
+      <c r="E165" s="5">
+        <v>2217</v>
       </c>
       <c r="F165" s="4">
         <v>865</v>
       </c>
-      <c r="G165" s="4">
-        <v>10.967000000000001</v>
-      </c>
-      <c r="H165" s="4">
-        <v>8.0920000000000005</v>
-      </c>
-      <c r="I165" s="4">
-        <v>13.972</v>
-      </c>
-      <c r="J165" s="4">
-        <v>1.153</v>
+      <c r="G165" s="5">
+        <v>10967</v>
+      </c>
+      <c r="H165" s="5">
+        <v>8092</v>
+      </c>
+      <c r="I165" s="5">
+        <v>13972</v>
+      </c>
+      <c r="J165" s="5">
+        <v>1153</v>
       </c>
       <c r="K165" s="4">
         <v>1</v>
@@ -7492,8 +7506,8 @@
       <c r="L165" s="4">
         <v>570</v>
       </c>
-      <c r="M165" s="5">
-        <v>38.94</v>
+      <c r="M165" s="6">
+        <v>38940</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7512,20 +7526,20 @@
       <c r="E166" s="4">
         <v>474</v>
       </c>
-      <c r="F166" s="4">
-        <v>7.4279999999999999</v>
-      </c>
-      <c r="G166" s="4">
-        <v>5.2750000000000004</v>
-      </c>
-      <c r="H166" s="4">
-        <v>9.3089999999999993</v>
-      </c>
-      <c r="I166" s="4">
-        <v>9.8390000000000004</v>
-      </c>
-      <c r="J166" s="4">
-        <v>1.4330000000000001</v>
+      <c r="F166" s="5">
+        <v>7428</v>
+      </c>
+      <c r="G166" s="5">
+        <v>5275</v>
+      </c>
+      <c r="H166" s="5">
+        <v>9309</v>
+      </c>
+      <c r="I166" s="5">
+        <v>9839</v>
+      </c>
+      <c r="J166" s="5">
+        <v>1433</v>
       </c>
       <c r="K166" s="4">
         <v>47</v>
@@ -7533,8 +7547,8 @@
       <c r="L166" s="4">
         <v>503</v>
       </c>
-      <c r="M166" s="5">
-        <v>34.869</v>
+      <c r="M166" s="6">
+        <v>34869</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7545,26 +7559,26 @@
       <c r="C167" s="4">
         <v>321</v>
       </c>
-      <c r="D167" s="4">
-        <v>1.9259999999999999</v>
-      </c>
-      <c r="E167" s="4">
-        <v>2.31</v>
-      </c>
-      <c r="F167" s="4">
-        <v>8.1159999999999997</v>
-      </c>
-      <c r="G167" s="4">
-        <v>3.8849999999999998</v>
-      </c>
-      <c r="H167" s="4">
-        <v>7.45</v>
-      </c>
-      <c r="I167" s="4">
-        <v>9.3119999999999994</v>
-      </c>
-      <c r="J167" s="4">
-        <v>1.234</v>
+      <c r="D167" s="5">
+        <v>1926</v>
+      </c>
+      <c r="E167" s="5">
+        <v>2310</v>
+      </c>
+      <c r="F167" s="5">
+        <v>8116</v>
+      </c>
+      <c r="G167" s="5">
+        <v>3885</v>
+      </c>
+      <c r="H167" s="5">
+        <v>7450</v>
+      </c>
+      <c r="I167" s="5">
+        <v>9312</v>
+      </c>
+      <c r="J167" s="5">
+        <v>1234</v>
       </c>
       <c r="K167" s="4">
         <v>39</v>
@@ -7572,8 +7586,8 @@
       <c r="L167" s="4">
         <v>711</v>
       </c>
-      <c r="M167" s="5">
-        <v>35.304000000000002</v>
+      <c r="M167" s="6">
+        <v>35304</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7589,23 +7603,23 @@
       <c r="D168" s="4">
         <v>384</v>
       </c>
-      <c r="E168" s="4">
-        <v>2.3610000000000002</v>
-      </c>
-      <c r="F168" s="4">
-        <v>9.1460000000000008</v>
-      </c>
-      <c r="G168" s="4">
-        <v>3.843</v>
-      </c>
-      <c r="H168" s="4">
-        <v>9.7370000000000001</v>
-      </c>
-      <c r="I168" s="4">
-        <v>7.3239999999999998</v>
-      </c>
-      <c r="J168" s="4">
-        <v>1.1910000000000001</v>
+      <c r="E168" s="5">
+        <v>2361</v>
+      </c>
+      <c r="F168" s="5">
+        <v>9146</v>
+      </c>
+      <c r="G168" s="5">
+        <v>3843</v>
+      </c>
+      <c r="H168" s="5">
+        <v>9737</v>
+      </c>
+      <c r="I168" s="5">
+        <v>7324</v>
+      </c>
+      <c r="J168" s="5">
+        <v>1191</v>
       </c>
       <c r="K168" s="4">
         <v>115</v>
@@ -7613,8 +7627,8 @@
       <c r="L168" s="4">
         <v>621</v>
       </c>
-      <c r="M168" s="5">
-        <v>34.759</v>
+      <c r="M168" s="6">
+        <v>34759</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7625,23 +7639,23 @@
       <c r="C169" s="4">
         <v>379</v>
       </c>
-      <c r="D169" s="4">
-        <v>1.3049999999999999</v>
-      </c>
-      <c r="E169" s="4">
-        <v>7.7370000000000001</v>
-      </c>
-      <c r="F169" s="4">
-        <v>7.1260000000000003</v>
-      </c>
-      <c r="G169" s="4">
-        <v>3.1659999999999999</v>
-      </c>
-      <c r="H169" s="4">
-        <v>7.1970000000000001</v>
-      </c>
-      <c r="I169" s="4">
-        <v>5.3579999999999997</v>
+      <c r="D169" s="5">
+        <v>1305</v>
+      </c>
+      <c r="E169" s="5">
+        <v>7737</v>
+      </c>
+      <c r="F169" s="5">
+        <v>7126</v>
+      </c>
+      <c r="G169" s="5">
+        <v>3166</v>
+      </c>
+      <c r="H169" s="5">
+        <v>7197</v>
+      </c>
+      <c r="I169" s="5">
+        <v>5358</v>
       </c>
       <c r="J169" s="4">
         <v>741</v>
@@ -7652,8 +7666,8 @@
       <c r="L169" s="4">
         <v>617</v>
       </c>
-      <c r="M169" s="5">
-        <v>33.719000000000001</v>
+      <c r="M169" s="6">
+        <v>33719</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7669,23 +7683,23 @@
       <c r="D170" s="4">
         <v>163</v>
       </c>
-      <c r="E170" s="4">
-        <v>4.7750000000000004</v>
-      </c>
-      <c r="F170" s="4">
-        <v>7.319</v>
-      </c>
-      <c r="G170" s="4">
-        <v>5.7709999999999999</v>
-      </c>
-      <c r="H170" s="4">
-        <v>8.7469999999999999</v>
-      </c>
-      <c r="I170" s="4">
-        <v>4.9870000000000001</v>
-      </c>
-      <c r="J170" s="4">
-        <v>1.004</v>
+      <c r="E170" s="5">
+        <v>4775</v>
+      </c>
+      <c r="F170" s="5">
+        <v>7319</v>
+      </c>
+      <c r="G170" s="5">
+        <v>5771</v>
+      </c>
+      <c r="H170" s="5">
+        <v>8747</v>
+      </c>
+      <c r="I170" s="5">
+        <v>4987</v>
+      </c>
+      <c r="J170" s="5">
+        <v>1004</v>
       </c>
       <c r="K170" s="4">
         <v>159</v>
@@ -7693,8 +7707,8 @@
       <c r="L170" s="4">
         <v>499</v>
       </c>
-      <c r="M170" s="5">
-        <v>33.475999999999999</v>
+      <c r="M170" s="6">
+        <v>33476</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7705,23 +7719,23 @@
       <c r="C171" s="4">
         <v>370</v>
       </c>
-      <c r="D171" s="4">
-        <v>1.018</v>
-      </c>
-      <c r="E171" s="4">
-        <v>12.162000000000001</v>
-      </c>
-      <c r="F171" s="4">
-        <v>3.593</v>
-      </c>
-      <c r="G171" s="4">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="H171" s="4">
-        <v>5.774</v>
-      </c>
-      <c r="I171" s="4">
-        <v>3.4980000000000002</v>
+      <c r="D171" s="5">
+        <v>1018</v>
+      </c>
+      <c r="E171" s="5">
+        <v>12162</v>
+      </c>
+      <c r="F171" s="5">
+        <v>3593</v>
+      </c>
+      <c r="G171" s="5">
+        <v>4480</v>
+      </c>
+      <c r="H171" s="5">
+        <v>5774</v>
+      </c>
+      <c r="I171" s="5">
+        <v>3498</v>
       </c>
       <c r="J171" s="4">
         <v>541</v>
@@ -7732,8 +7746,8 @@
       <c r="L171" s="4">
         <v>475</v>
       </c>
-      <c r="M171" s="5">
-        <v>32.003</v>
+      <c r="M171" s="6">
+        <v>32003</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7749,20 +7763,20 @@
       <c r="D172" s="4">
         <v>134</v>
       </c>
-      <c r="E172" s="4">
-        <v>4.6520000000000001</v>
-      </c>
-      <c r="F172" s="4">
-        <v>6.782</v>
-      </c>
-      <c r="G172" s="4">
-        <v>4.7149999999999999</v>
-      </c>
-      <c r="H172" s="4">
-        <v>6.4480000000000004</v>
-      </c>
-      <c r="I172" s="4">
-        <v>3.7959999999999998</v>
+      <c r="E172" s="5">
+        <v>4652</v>
+      </c>
+      <c r="F172" s="5">
+        <v>6782</v>
+      </c>
+      <c r="G172" s="5">
+        <v>4715</v>
+      </c>
+      <c r="H172" s="5">
+        <v>6448</v>
+      </c>
+      <c r="I172" s="5">
+        <v>3796</v>
       </c>
       <c r="J172" s="4">
         <v>565</v>
@@ -7773,8 +7787,8 @@
       <c r="L172" s="4">
         <v>446</v>
       </c>
-      <c r="M172" s="5">
-        <v>27.725000000000001</v>
+      <c r="M172" s="6">
+        <v>27725</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7788,20 +7802,20 @@
       <c r="D173" s="4">
         <v>842</v>
       </c>
-      <c r="E173" s="4">
-        <v>11.250999999999999</v>
-      </c>
-      <c r="F173" s="4">
-        <v>3.6059999999999999</v>
-      </c>
-      <c r="G173" s="4">
-        <v>3.7829999999999999</v>
-      </c>
-      <c r="H173" s="4">
-        <v>3.948</v>
-      </c>
-      <c r="I173" s="4">
-        <v>1.952</v>
+      <c r="E173" s="5">
+        <v>11251</v>
+      </c>
+      <c r="F173" s="5">
+        <v>3606</v>
+      </c>
+      <c r="G173" s="5">
+        <v>3783</v>
+      </c>
+      <c r="H173" s="5">
+        <v>3948</v>
+      </c>
+      <c r="I173" s="5">
+        <v>1952</v>
       </c>
       <c r="J173" s="4">
         <v>180</v>
@@ -7812,8 +7826,8 @@
       <c r="L173" s="4">
         <v>452</v>
       </c>
-      <c r="M173" s="5">
-        <v>26.52</v>
+      <c r="M173" s="6">
+        <v>26520</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7829,20 +7843,20 @@
       <c r="D174" s="4">
         <v>108</v>
       </c>
-      <c r="E174" s="4">
-        <v>4.0039999999999996</v>
-      </c>
-      <c r="F174" s="4">
-        <v>5.9349999999999996</v>
-      </c>
-      <c r="G174" s="4">
-        <v>4.3929999999999998</v>
-      </c>
-      <c r="H174" s="4">
-        <v>4.1550000000000002</v>
-      </c>
-      <c r="I174" s="4">
-        <v>2.544</v>
+      <c r="E174" s="5">
+        <v>4004</v>
+      </c>
+      <c r="F174" s="5">
+        <v>5935</v>
+      </c>
+      <c r="G174" s="5">
+        <v>4393</v>
+      </c>
+      <c r="H174" s="5">
+        <v>4155</v>
+      </c>
+      <c r="I174" s="5">
+        <v>2544</v>
       </c>
       <c r="J174" s="4">
         <v>326</v>
@@ -7853,8 +7867,8 @@
       <c r="L174" s="4">
         <v>398</v>
       </c>
-      <c r="M174" s="5">
-        <v>21.981000000000002</v>
+      <c r="M174" s="6">
+        <v>21981</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7865,20 +7879,20 @@
       <c r="C175" s="4">
         <v>651</v>
       </c>
-      <c r="D175" s="4">
-        <v>1.153</v>
-      </c>
-      <c r="E175" s="4">
-        <v>9.5470000000000006</v>
-      </c>
-      <c r="F175" s="4">
-        <v>2.694</v>
-      </c>
-      <c r="G175" s="4">
-        <v>2.8580000000000001</v>
-      </c>
-      <c r="H175" s="4">
-        <v>2.4830000000000001</v>
+      <c r="D175" s="5">
+        <v>1153</v>
+      </c>
+      <c r="E175" s="5">
+        <v>9547</v>
+      </c>
+      <c r="F175" s="5">
+        <v>2694</v>
+      </c>
+      <c r="G175" s="5">
+        <v>2858</v>
+      </c>
+      <c r="H175" s="5">
+        <v>2483</v>
       </c>
       <c r="I175" s="4">
         <v>986</v>
@@ -7892,8 +7906,8 @@
       <c r="L175" s="4">
         <v>405</v>
       </c>
-      <c r="M175" s="5">
-        <v>20.931999999999999</v>
+      <c r="M175" s="6">
+        <v>20932</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7909,20 +7923,20 @@
       <c r="D176" s="4">
         <v>202</v>
       </c>
-      <c r="E176" s="4">
-        <v>4.5679999999999996</v>
-      </c>
-      <c r="F176" s="4">
-        <v>4.7939999999999996</v>
-      </c>
-      <c r="G176" s="4">
-        <v>3.3849999999999998</v>
-      </c>
-      <c r="H176" s="4">
-        <v>3.0539999999999998</v>
-      </c>
-      <c r="I176" s="4">
-        <v>1.448</v>
+      <c r="E176" s="5">
+        <v>4568</v>
+      </c>
+      <c r="F176" s="5">
+        <v>4794</v>
+      </c>
+      <c r="G176" s="5">
+        <v>3385</v>
+      </c>
+      <c r="H176" s="5">
+        <v>3054</v>
+      </c>
+      <c r="I176" s="5">
+        <v>1448</v>
       </c>
       <c r="J176" s="4">
         <v>167</v>
@@ -7933,8 +7947,8 @@
       <c r="L176" s="4">
         <v>399</v>
       </c>
-      <c r="M176" s="5">
-        <v>18.145</v>
+      <c r="M176" s="6">
+        <v>18145</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7942,23 +7956,23 @@
       <c r="B177" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C177" s="4">
-        <v>1.149</v>
-      </c>
-      <c r="D177" s="4">
-        <v>1.5920000000000001</v>
-      </c>
-      <c r="E177" s="4">
-        <v>8.8190000000000008</v>
-      </c>
-      <c r="F177" s="4">
-        <v>1.6519999999999999</v>
-      </c>
-      <c r="G177" s="4">
-        <v>1.8260000000000001</v>
-      </c>
-      <c r="H177" s="4">
-        <v>1.57</v>
+      <c r="C177" s="5">
+        <v>1149</v>
+      </c>
+      <c r="D177" s="5">
+        <v>1592</v>
+      </c>
+      <c r="E177" s="5">
+        <v>8819</v>
+      </c>
+      <c r="F177" s="5">
+        <v>1652</v>
+      </c>
+      <c r="G177" s="5">
+        <v>1826</v>
+      </c>
+      <c r="H177" s="5">
+        <v>1570</v>
       </c>
       <c r="I177" s="4">
         <v>399</v>
@@ -7972,8 +7986,8 @@
       <c r="L177" s="4">
         <v>406</v>
       </c>
-      <c r="M177" s="5">
-        <v>17.472999999999999</v>
+      <c r="M177" s="6">
+        <v>17473</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -7989,17 +8003,17 @@
       <c r="D178" s="4">
         <v>277</v>
       </c>
-      <c r="E178" s="4">
-        <v>4.5289999999999999</v>
-      </c>
-      <c r="F178" s="4">
-        <v>2.7029999999999998</v>
-      </c>
-      <c r="G178" s="4">
-        <v>2.1040000000000001</v>
-      </c>
-      <c r="H178" s="4">
-        <v>2.2610000000000001</v>
+      <c r="E178" s="5">
+        <v>4529</v>
+      </c>
+      <c r="F178" s="5">
+        <v>2703</v>
+      </c>
+      <c r="G178" s="5">
+        <v>2104</v>
+      </c>
+      <c r="H178" s="5">
+        <v>2261</v>
       </c>
       <c r="I178" s="4">
         <v>882</v>
@@ -8013,8 +8027,8 @@
       <c r="L178" s="4">
         <v>260</v>
       </c>
-      <c r="M178" s="5">
-        <v>13.167</v>
+      <c r="M178" s="6">
+        <v>13167</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8022,20 +8036,20 @@
       <c r="B179" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C179" s="4">
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="D179" s="4">
-        <v>1.7729999999999999</v>
-      </c>
-      <c r="E179" s="4">
-        <v>7.0380000000000003</v>
+      <c r="C179" s="5">
+        <v>1572</v>
+      </c>
+      <c r="D179" s="5">
+        <v>1773</v>
+      </c>
+      <c r="E179" s="5">
+        <v>7038</v>
       </c>
       <c r="F179" s="4">
         <v>817</v>
       </c>
-      <c r="G179" s="4">
-        <v>1.028</v>
+      <c r="G179" s="5">
+        <v>1028</v>
       </c>
       <c r="H179" s="4">
         <v>989</v>
@@ -8052,8 +8066,8 @@
       <c r="L179" s="4">
         <v>309</v>
       </c>
-      <c r="M179" s="5">
-        <v>13.775</v>
+      <c r="M179" s="6">
+        <v>13775</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8069,17 +8083,17 @@
       <c r="D180" s="4">
         <v>384</v>
       </c>
-      <c r="E180" s="4">
-        <v>4.0759999999999996</v>
-      </c>
-      <c r="F180" s="4">
-        <v>1.1459999999999999</v>
-      </c>
-      <c r="G180" s="4">
-        <v>1.194</v>
-      </c>
-      <c r="H180" s="4">
-        <v>1.212</v>
+      <c r="E180" s="5">
+        <v>4076</v>
+      </c>
+      <c r="F180" s="5">
+        <v>1146</v>
+      </c>
+      <c r="G180" s="5">
+        <v>1194</v>
+      </c>
+      <c r="H180" s="5">
+        <v>1212</v>
       </c>
       <c r="I180" s="4">
         <v>623</v>
@@ -8093,8 +8107,8 @@
       <c r="L180" s="4">
         <v>248</v>
       </c>
-      <c r="M180" s="5">
-        <v>9.0660000000000007</v>
+      <c r="M180" s="6">
+        <v>9066</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8102,14 +8116,14 @@
       <c r="B181" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C181" s="4">
-        <v>2.3140000000000001</v>
-      </c>
-      <c r="D181" s="4">
-        <v>1.7130000000000001</v>
-      </c>
-      <c r="E181" s="4">
-        <v>4.1749999999999998</v>
+      <c r="C181" s="5">
+        <v>2314</v>
+      </c>
+      <c r="D181" s="5">
+        <v>1713</v>
+      </c>
+      <c r="E181" s="5">
+        <v>4175</v>
       </c>
       <c r="F181" s="4">
         <v>228</v>
@@ -8132,8 +8146,8 @@
       <c r="L181" s="4">
         <v>276</v>
       </c>
-      <c r="M181" s="5">
-        <v>9.8659999999999997</v>
+      <c r="M181" s="6">
+        <v>9866</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8149,8 +8163,8 @@
       <c r="D182" s="4">
         <v>442</v>
       </c>
-      <c r="E182" s="4">
-        <v>3.5169999999999999</v>
+      <c r="E182" s="5">
+        <v>3517</v>
       </c>
       <c r="F182" s="4">
         <v>418</v>
@@ -8173,8 +8187,8 @@
       <c r="L182" s="4">
         <v>167</v>
       </c>
-      <c r="M182" s="5">
-        <v>6.4059999999999997</v>
+      <c r="M182" s="6">
+        <v>6406</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -8182,14 +8196,14 @@
       <c r="B183" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C183" s="4">
-        <v>2.657</v>
-      </c>
-      <c r="D183" s="4">
-        <v>1.421</v>
-      </c>
-      <c r="E183" s="4">
-        <v>2.3650000000000002</v>
+      <c r="C183" s="5">
+        <v>2657</v>
+      </c>
+      <c r="D183" s="5">
+        <v>1421</v>
+      </c>
+      <c r="E183" s="5">
+        <v>2365</v>
       </c>
       <c r="F183" s="4">
         <v>88</v>
@@ -8212,8 +8226,8 @@
       <c r="L183" s="4">
         <v>215</v>
       </c>
-      <c r="M183" s="5">
-        <v>7.3540000000000001</v>
+      <c r="M183" s="6">
+        <v>7354</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8226,11 +8240,11 @@
       <c r="C184" s="4">
         <v>685</v>
       </c>
-      <c r="D184" s="4">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="E184" s="4">
-        <v>3.2949999999999999</v>
+      <c r="D184" s="5">
+        <v>1092</v>
+      </c>
+      <c r="E184" s="5">
+        <v>3295</v>
       </c>
       <c r="F184" s="4">
         <v>120</v>
@@ -8253,8 +8267,8 @@
       <c r="L184" s="4">
         <v>226</v>
       </c>
-      <c r="M184" s="5">
-        <v>6.3840000000000003</v>
+      <c r="M184" s="6">
+        <v>6384</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8262,14 +8276,14 @@
       <c r="B185" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C185" s="4">
-        <v>5.944</v>
-      </c>
-      <c r="D185" s="4">
-        <v>1.6919999999999999</v>
-      </c>
-      <c r="E185" s="4">
-        <v>1.78</v>
+      <c r="C185" s="5">
+        <v>5944</v>
+      </c>
+      <c r="D185" s="5">
+        <v>1692</v>
+      </c>
+      <c r="E185" s="5">
+        <v>1780</v>
       </c>
       <c r="F185" s="4">
         <v>30</v>
@@ -8292,54 +8306,54 @@
       <c r="L185" s="4">
         <v>382</v>
       </c>
-      <c r="M185" s="5">
-        <v>10.259</v>
+      <c r="M185" s="6">
+        <v>10259</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
-        <v>17.202999999999999</v>
-      </c>
-      <c r="D186" s="5">
-        <v>20.542000000000002</v>
-      </c>
-      <c r="E186" s="5">
-        <v>107.587</v>
-      </c>
-      <c r="F186" s="5">
-        <v>75.647000000000006</v>
-      </c>
-      <c r="G186" s="5">
-        <v>112.223</v>
-      </c>
-      <c r="H186" s="5">
-        <v>154.977</v>
-      </c>
-      <c r="I186" s="5">
-        <v>93.141999999999996</v>
-      </c>
-      <c r="J186" s="5">
-        <v>9.8670000000000009</v>
-      </c>
-      <c r="K186" s="5">
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="L186" s="5">
-        <v>10.337999999999999</v>
-      </c>
-      <c r="M186" s="5">
-        <v>602.61199999999997</v>
+      <c r="B186" s="8"/>
+      <c r="C186" s="6">
+        <v>17203</v>
+      </c>
+      <c r="D186" s="6">
+        <v>20542</v>
+      </c>
+      <c r="E186" s="6">
+        <v>107587</v>
+      </c>
+      <c r="F186" s="6">
+        <v>75647</v>
+      </c>
+      <c r="G186" s="6">
+        <v>112223</v>
+      </c>
+      <c r="H186" s="6">
+        <v>154977</v>
+      </c>
+      <c r="I186" s="6">
+        <v>93142</v>
+      </c>
+      <c r="J186" s="6">
+        <v>9867</v>
+      </c>
+      <c r="K186" s="6">
+        <v>1086</v>
+      </c>
+      <c r="L186" s="6">
+        <v>10338</v>
+      </c>
+      <c r="M186" s="6">
+        <v>602612</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8393,14 +8407,14 @@
       <c r="F188" s="4">
         <v>41</v>
       </c>
-      <c r="G188" s="4">
-        <v>17.373999999999999</v>
-      </c>
-      <c r="H188" s="4">
-        <v>25.946999999999999</v>
-      </c>
-      <c r="I188" s="4">
-        <v>4.5529999999999999</v>
+      <c r="G188" s="5">
+        <v>17374</v>
+      </c>
+      <c r="H188" s="5">
+        <v>25947</v>
+      </c>
+      <c r="I188" s="5">
+        <v>4553</v>
       </c>
       <c r="J188" s="4">
         <v>42</v>
@@ -8411,8 +8425,8 @@
       <c r="L188" s="4">
         <v>534</v>
       </c>
-      <c r="M188" s="5">
-        <v>49.472000000000001</v>
+      <c r="M188" s="6">
+        <v>49472</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8432,14 +8446,14 @@
       <c r="F189" s="4">
         <v>20</v>
       </c>
-      <c r="G189" s="4">
-        <v>15.831</v>
-      </c>
-      <c r="H189" s="4">
-        <v>25.821999999999999</v>
-      </c>
-      <c r="I189" s="4">
-        <v>6.5990000000000002</v>
+      <c r="G189" s="5">
+        <v>15831</v>
+      </c>
+      <c r="H189" s="5">
+        <v>25822</v>
+      </c>
+      <c r="I189" s="5">
+        <v>6599</v>
       </c>
       <c r="J189" s="4">
         <v>79</v>
@@ -8450,8 +8464,8 @@
       <c r="L189" s="4">
         <v>314</v>
       </c>
-      <c r="M189" s="5">
-        <v>49.935000000000002</v>
+      <c r="M189" s="6">
+        <v>49935</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8473,14 +8487,14 @@
       <c r="F190" s="4">
         <v>814</v>
       </c>
-      <c r="G190" s="4">
-        <v>12.128</v>
-      </c>
-      <c r="H190" s="4">
-        <v>8.6259999999999994</v>
-      </c>
-      <c r="I190" s="4">
-        <v>9.3059999999999992</v>
+      <c r="G190" s="5">
+        <v>12128</v>
+      </c>
+      <c r="H190" s="5">
+        <v>8626</v>
+      </c>
+      <c r="I190" s="5">
+        <v>9306</v>
       </c>
       <c r="J190" s="4">
         <v>695</v>
@@ -8491,8 +8505,8 @@
       <c r="L190" s="4">
         <v>242</v>
       </c>
-      <c r="M190" s="5">
-        <v>32.67</v>
+      <c r="M190" s="6">
+        <v>32670</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8506,23 +8520,23 @@
       <c r="D191" s="4">
         <v>926</v>
       </c>
-      <c r="E191" s="4">
-        <v>2.161</v>
+      <c r="E191" s="5">
+        <v>2161</v>
       </c>
       <c r="F191" s="4">
         <v>720</v>
       </c>
-      <c r="G191" s="4">
-        <v>10.74</v>
-      </c>
-      <c r="H191" s="4">
-        <v>6.49</v>
-      </c>
-      <c r="I191" s="4">
-        <v>11.042999999999999</v>
-      </c>
-      <c r="J191" s="4">
-        <v>1.0760000000000001</v>
+      <c r="G191" s="5">
+        <v>10740</v>
+      </c>
+      <c r="H191" s="5">
+        <v>6490</v>
+      </c>
+      <c r="I191" s="5">
+        <v>11043</v>
+      </c>
+      <c r="J191" s="5">
+        <v>1076</v>
       </c>
       <c r="K191" s="4">
         <v>3</v>
@@ -8530,8 +8544,8 @@
       <c r="L191" s="4">
         <v>300</v>
       </c>
-      <c r="M191" s="5">
-        <v>33.529000000000003</v>
+      <c r="M191" s="6">
+        <v>33529</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8550,20 +8564,20 @@
       <c r="E192" s="4">
         <v>490</v>
       </c>
-      <c r="F192" s="4">
-        <v>7.2640000000000002</v>
-      </c>
-      <c r="G192" s="4">
-        <v>4.883</v>
-      </c>
-      <c r="H192" s="4">
-        <v>7.7510000000000003</v>
-      </c>
-      <c r="I192" s="4">
-        <v>8.2219999999999995</v>
-      </c>
-      <c r="J192" s="4">
-        <v>1.3220000000000001</v>
+      <c r="F192" s="5">
+        <v>7264</v>
+      </c>
+      <c r="G192" s="5">
+        <v>4883</v>
+      </c>
+      <c r="H192" s="5">
+        <v>7751</v>
+      </c>
+      <c r="I192" s="5">
+        <v>8222</v>
+      </c>
+      <c r="J192" s="5">
+        <v>1322</v>
       </c>
       <c r="K192" s="4">
         <v>30</v>
@@ -8571,8 +8585,8 @@
       <c r="L192" s="4">
         <v>262</v>
       </c>
-      <c r="M192" s="5">
-        <v>30.885000000000002</v>
+      <c r="M192" s="6">
+        <v>30885</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8583,26 +8597,26 @@
       <c r="C193" s="4">
         <v>313</v>
       </c>
-      <c r="D193" s="4">
-        <v>2.3130000000000002</v>
-      </c>
-      <c r="E193" s="4">
-        <v>2.3780000000000001</v>
-      </c>
-      <c r="F193" s="4">
-        <v>7.6749999999999998</v>
-      </c>
-      <c r="G193" s="4">
-        <v>3.4790000000000001</v>
-      </c>
-      <c r="H193" s="4">
-        <v>5.5910000000000002</v>
-      </c>
-      <c r="I193" s="4">
-        <v>7.9669999999999996</v>
-      </c>
-      <c r="J193" s="4">
-        <v>1.3009999999999999</v>
+      <c r="D193" s="5">
+        <v>2313</v>
+      </c>
+      <c r="E193" s="5">
+        <v>2378</v>
+      </c>
+      <c r="F193" s="5">
+        <v>7675</v>
+      </c>
+      <c r="G193" s="5">
+        <v>3479</v>
+      </c>
+      <c r="H193" s="5">
+        <v>5591</v>
+      </c>
+      <c r="I193" s="5">
+        <v>7967</v>
+      </c>
+      <c r="J193" s="5">
+        <v>1301</v>
       </c>
       <c r="K193" s="4">
         <v>37</v>
@@ -8610,8 +8624,8 @@
       <c r="L193" s="4">
         <v>371</v>
       </c>
-      <c r="M193" s="5">
-        <v>31.425000000000001</v>
+      <c r="M193" s="6">
+        <v>31425</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8627,23 +8641,23 @@
       <c r="D194" s="4">
         <v>385</v>
       </c>
-      <c r="E194" s="4">
-        <v>2.7440000000000002</v>
-      </c>
-      <c r="F194" s="4">
-        <v>8.1180000000000003</v>
-      </c>
-      <c r="G194" s="4">
-        <v>3.2650000000000001</v>
-      </c>
-      <c r="H194" s="4">
-        <v>8.3949999999999996</v>
-      </c>
-      <c r="I194" s="4">
-        <v>6.4320000000000004</v>
-      </c>
-      <c r="J194" s="4">
-        <v>1.224</v>
+      <c r="E194" s="5">
+        <v>2744</v>
+      </c>
+      <c r="F194" s="5">
+        <v>8118</v>
+      </c>
+      <c r="G194" s="5">
+        <v>3265</v>
+      </c>
+      <c r="H194" s="5">
+        <v>8395</v>
+      </c>
+      <c r="I194" s="5">
+        <v>6432</v>
+      </c>
+      <c r="J194" s="5">
+        <v>1224</v>
       </c>
       <c r="K194" s="4">
         <v>101</v>
@@ -8651,8 +8665,8 @@
       <c r="L194" s="4">
         <v>387</v>
       </c>
-      <c r="M194" s="5">
-        <v>31.103999999999999</v>
+      <c r="M194" s="6">
+        <v>31104</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8663,23 +8677,23 @@
       <c r="C195" s="4">
         <v>373</v>
       </c>
-      <c r="D195" s="4">
-        <v>1.42</v>
-      </c>
-      <c r="E195" s="4">
-        <v>8.8970000000000002</v>
-      </c>
-      <c r="F195" s="4">
-        <v>5.3929999999999998</v>
-      </c>
-      <c r="G195" s="4">
-        <v>2.4140000000000001</v>
-      </c>
-      <c r="H195" s="4">
-        <v>5.5830000000000002</v>
-      </c>
-      <c r="I195" s="4">
-        <v>5.117</v>
+      <c r="D195" s="5">
+        <v>1420</v>
+      </c>
+      <c r="E195" s="5">
+        <v>8897</v>
+      </c>
+      <c r="F195" s="5">
+        <v>5393</v>
+      </c>
+      <c r="G195" s="5">
+        <v>2414</v>
+      </c>
+      <c r="H195" s="5">
+        <v>5583</v>
+      </c>
+      <c r="I195" s="5">
+        <v>5117</v>
       </c>
       <c r="J195" s="4">
         <v>969</v>
@@ -8690,8 +8704,8 @@
       <c r="L195" s="4">
         <v>372</v>
       </c>
-      <c r="M195" s="5">
-        <v>30.640999999999998</v>
+      <c r="M195" s="6">
+        <v>30641</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8707,23 +8721,23 @@
       <c r="D196" s="4">
         <v>207</v>
       </c>
-      <c r="E196" s="4">
-        <v>4.4340000000000002</v>
-      </c>
-      <c r="F196" s="4">
-        <v>6.1459999999999999</v>
-      </c>
-      <c r="G196" s="4">
-        <v>4.5579999999999998</v>
-      </c>
-      <c r="H196" s="4">
-        <v>7.5830000000000002</v>
-      </c>
-      <c r="I196" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J196" s="4">
-        <v>1.1759999999999999</v>
+      <c r="E196" s="5">
+        <v>4434</v>
+      </c>
+      <c r="F196" s="5">
+        <v>6146</v>
+      </c>
+      <c r="G196" s="5">
+        <v>4558</v>
+      </c>
+      <c r="H196" s="5">
+        <v>7583</v>
+      </c>
+      <c r="I196" s="5">
+        <v>4900</v>
+      </c>
+      <c r="J196" s="5">
+        <v>1176</v>
       </c>
       <c r="K196" s="4">
         <v>184</v>
@@ -8731,8 +8745,8 @@
       <c r="L196" s="4">
         <v>343</v>
       </c>
-      <c r="M196" s="5">
-        <v>29.588000000000001</v>
+      <c r="M196" s="6">
+        <v>29588</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8743,23 +8757,23 @@
       <c r="C197" s="4">
         <v>406</v>
       </c>
-      <c r="D197" s="4">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="E197" s="4">
-        <v>11.041</v>
-      </c>
-      <c r="F197" s="4">
-        <v>2.891</v>
-      </c>
-      <c r="G197" s="4">
-        <v>3.2029999999999998</v>
-      </c>
-      <c r="H197" s="4">
-        <v>4.5119999999999996</v>
-      </c>
-      <c r="I197" s="4">
-        <v>3.9729999999999999</v>
+      <c r="D197" s="5">
+        <v>1001</v>
+      </c>
+      <c r="E197" s="5">
+        <v>11041</v>
+      </c>
+      <c r="F197" s="5">
+        <v>2891</v>
+      </c>
+      <c r="G197" s="5">
+        <v>3203</v>
+      </c>
+      <c r="H197" s="5">
+        <v>4512</v>
+      </c>
+      <c r="I197" s="5">
+        <v>3973</v>
       </c>
       <c r="J197" s="4">
         <v>785</v>
@@ -8770,8 +8784,8 @@
       <c r="L197" s="4">
         <v>309</v>
       </c>
-      <c r="M197" s="5">
-        <v>28.274999999999999</v>
+      <c r="M197" s="6">
+        <v>28275</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8787,20 +8801,20 @@
       <c r="D198" s="4">
         <v>137</v>
       </c>
-      <c r="E198" s="4">
-        <v>4.1680000000000001</v>
-      </c>
-      <c r="F198" s="4">
-        <v>5.5759999999999996</v>
-      </c>
-      <c r="G198" s="4">
-        <v>3.5609999999999999</v>
-      </c>
-      <c r="H198" s="4">
-        <v>5.4059999999999997</v>
-      </c>
-      <c r="I198" s="4">
-        <v>3.7370000000000001</v>
+      <c r="E198" s="5">
+        <v>4168</v>
+      </c>
+      <c r="F198" s="5">
+        <v>5576</v>
+      </c>
+      <c r="G198" s="5">
+        <v>3561</v>
+      </c>
+      <c r="H198" s="5">
+        <v>5406</v>
+      </c>
+      <c r="I198" s="5">
+        <v>3737</v>
       </c>
       <c r="J198" s="4">
         <v>729</v>
@@ -8811,8 +8825,8 @@
       <c r="L198" s="4">
         <v>278</v>
       </c>
-      <c r="M198" s="5">
-        <v>23.835000000000001</v>
+      <c r="M198" s="6">
+        <v>23835</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8823,23 +8837,23 @@
       <c r="C199" s="4">
         <v>509</v>
       </c>
-      <c r="D199" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="E199" s="4">
-        <v>9.6820000000000004</v>
-      </c>
-      <c r="F199" s="4">
-        <v>2.6120000000000001</v>
-      </c>
-      <c r="G199" s="4">
-        <v>2.4990000000000001</v>
-      </c>
-      <c r="H199" s="4">
-        <v>3.3250000000000002</v>
-      </c>
-      <c r="I199" s="4">
-        <v>2.54</v>
+      <c r="D199" s="5">
+        <v>1050</v>
+      </c>
+      <c r="E199" s="5">
+        <v>9682</v>
+      </c>
+      <c r="F199" s="5">
+        <v>2612</v>
+      </c>
+      <c r="G199" s="5">
+        <v>2499</v>
+      </c>
+      <c r="H199" s="5">
+        <v>3325</v>
+      </c>
+      <c r="I199" s="5">
+        <v>2540</v>
       </c>
       <c r="J199" s="4">
         <v>377</v>
@@ -8850,8 +8864,8 @@
       <c r="L199" s="4">
         <v>254</v>
       </c>
-      <c r="M199" s="5">
-        <v>22.986999999999998</v>
+      <c r="M199" s="6">
+        <v>22987</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8867,20 +8881,20 @@
       <c r="D200" s="4">
         <v>147</v>
       </c>
-      <c r="E200" s="4">
-        <v>3.637</v>
-      </c>
-      <c r="F200" s="4">
-        <v>4.7619999999999996</v>
-      </c>
-      <c r="G200" s="4">
-        <v>3.0950000000000002</v>
-      </c>
-      <c r="H200" s="4">
-        <v>3.53</v>
-      </c>
-      <c r="I200" s="4">
-        <v>2.5030000000000001</v>
+      <c r="E200" s="5">
+        <v>3637</v>
+      </c>
+      <c r="F200" s="5">
+        <v>4762</v>
+      </c>
+      <c r="G200" s="5">
+        <v>3095</v>
+      </c>
+      <c r="H200" s="5">
+        <v>3530</v>
+      </c>
+      <c r="I200" s="5">
+        <v>2503</v>
       </c>
       <c r="J200" s="4">
         <v>514</v>
@@ -8891,8 +8905,8 @@
       <c r="L200" s="4">
         <v>227</v>
       </c>
-      <c r="M200" s="5">
-        <v>18.62</v>
+      <c r="M200" s="6">
+        <v>18620</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8903,23 +8917,23 @@
       <c r="C201" s="4">
         <v>774</v>
       </c>
-      <c r="D201" s="4">
-        <v>1.27</v>
-      </c>
-      <c r="E201" s="4">
-        <v>7.7320000000000002</v>
-      </c>
-      <c r="F201" s="4">
-        <v>1.895</v>
-      </c>
-      <c r="G201" s="4">
-        <v>1.7649999999999999</v>
-      </c>
-      <c r="H201" s="4">
-        <v>2.391</v>
-      </c>
-      <c r="I201" s="4">
-        <v>1.385</v>
+      <c r="D201" s="5">
+        <v>1270</v>
+      </c>
+      <c r="E201" s="5">
+        <v>7732</v>
+      </c>
+      <c r="F201" s="5">
+        <v>1895</v>
+      </c>
+      <c r="G201" s="5">
+        <v>1765</v>
+      </c>
+      <c r="H201" s="5">
+        <v>2391</v>
+      </c>
+      <c r="I201" s="5">
+        <v>1385</v>
       </c>
       <c r="J201" s="4">
         <v>184</v>
@@ -8930,8 +8944,8 @@
       <c r="L201" s="4">
         <v>221</v>
       </c>
-      <c r="M201" s="5">
-        <v>17.707000000000001</v>
+      <c r="M201" s="6">
+        <v>17707</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8947,20 +8961,20 @@
       <c r="D202" s="4">
         <v>176</v>
       </c>
-      <c r="E202" s="4">
-        <v>3.992</v>
-      </c>
-      <c r="F202" s="4">
-        <v>3.536</v>
-      </c>
-      <c r="G202" s="4">
-        <v>2.339</v>
-      </c>
-      <c r="H202" s="4">
-        <v>2.5830000000000002</v>
-      </c>
-      <c r="I202" s="4">
-        <v>1.629</v>
+      <c r="E202" s="5">
+        <v>3992</v>
+      </c>
+      <c r="F202" s="5">
+        <v>3536</v>
+      </c>
+      <c r="G202" s="5">
+        <v>2339</v>
+      </c>
+      <c r="H202" s="5">
+        <v>2583</v>
+      </c>
+      <c r="I202" s="5">
+        <v>1629</v>
       </c>
       <c r="J202" s="4">
         <v>288</v>
@@ -8971,8 +8985,8 @@
       <c r="L202" s="4">
         <v>266</v>
       </c>
-      <c r="M202" s="5">
-        <v>15</v>
+      <c r="M202" s="6">
+        <v>15000</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -8980,23 +8994,23 @@
       <c r="B203" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C203" s="4">
-        <v>1.23</v>
-      </c>
-      <c r="D203" s="4">
-        <v>1.4610000000000001</v>
-      </c>
-      <c r="E203" s="4">
-        <v>6.6879999999999997</v>
-      </c>
-      <c r="F203" s="4">
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="G203" s="4">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="H203" s="4">
-        <v>1.6930000000000001</v>
+      <c r="C203" s="5">
+        <v>1230</v>
+      </c>
+      <c r="D203" s="5">
+        <v>1461</v>
+      </c>
+      <c r="E203" s="5">
+        <v>6688</v>
+      </c>
+      <c r="F203" s="5">
+        <v>1176</v>
+      </c>
+      <c r="G203" s="5">
+        <v>1239</v>
+      </c>
+      <c r="H203" s="5">
+        <v>1693</v>
       </c>
       <c r="I203" s="4">
         <v>697</v>
@@ -9010,8 +9024,8 @@
       <c r="L203" s="4">
         <v>198</v>
       </c>
-      <c r="M203" s="5">
-        <v>14.53</v>
+      <c r="M203" s="6">
+        <v>14530</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9027,20 +9041,20 @@
       <c r="D204" s="4">
         <v>224</v>
       </c>
-      <c r="E204" s="4">
-        <v>3.694</v>
-      </c>
-      <c r="F204" s="4">
-        <v>1.913</v>
-      </c>
-      <c r="G204" s="4">
-        <v>1.5009999999999999</v>
-      </c>
-      <c r="H204" s="4">
-        <v>2.1560000000000001</v>
-      </c>
-      <c r="I204" s="4">
-        <v>1.161</v>
+      <c r="E204" s="5">
+        <v>3694</v>
+      </c>
+      <c r="F204" s="5">
+        <v>1913</v>
+      </c>
+      <c r="G204" s="5">
+        <v>1501</v>
+      </c>
+      <c r="H204" s="5">
+        <v>2156</v>
+      </c>
+      <c r="I204" s="5">
+        <v>1161</v>
       </c>
       <c r="J204" s="4">
         <v>137</v>
@@ -9051,8 +9065,8 @@
       <c r="L204" s="4">
         <v>171</v>
       </c>
-      <c r="M204" s="5">
-        <v>11.09</v>
+      <c r="M204" s="6">
+        <v>11090</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9060,14 +9074,14 @@
       <c r="B205" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C205" s="4">
-        <v>1.5760000000000001</v>
-      </c>
-      <c r="D205" s="4">
-        <v>1.46</v>
-      </c>
-      <c r="E205" s="4">
-        <v>5.0640000000000001</v>
+      <c r="C205" s="5">
+        <v>1576</v>
+      </c>
+      <c r="D205" s="5">
+        <v>1460</v>
+      </c>
+      <c r="E205" s="5">
+        <v>5064</v>
       </c>
       <c r="F205" s="4">
         <v>551</v>
@@ -9075,8 +9089,8 @@
       <c r="G205" s="4">
         <v>770</v>
       </c>
-      <c r="H205" s="4">
-        <v>1.3</v>
+      <c r="H205" s="5">
+        <v>1300</v>
       </c>
       <c r="I205" s="4">
         <v>476</v>
@@ -9090,8 +9104,8 @@
       <c r="L205" s="4">
         <v>212</v>
       </c>
-      <c r="M205" s="5">
-        <v>11.465</v>
+      <c r="M205" s="6">
+        <v>11465</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9107,8 +9121,8 @@
       <c r="D206" s="4">
         <v>341</v>
       </c>
-      <c r="E206" s="4">
-        <v>3.395</v>
+      <c r="E206" s="5">
+        <v>3395</v>
       </c>
       <c r="F206" s="4">
         <v>777</v>
@@ -9116,11 +9130,11 @@
       <c r="G206" s="4">
         <v>854</v>
       </c>
-      <c r="H206" s="4">
-        <v>1.0820000000000001</v>
-      </c>
-      <c r="I206" s="4">
-        <v>1.006</v>
+      <c r="H206" s="5">
+        <v>1082</v>
+      </c>
+      <c r="I206" s="5">
+        <v>1006</v>
       </c>
       <c r="J206" s="4">
         <v>70</v>
@@ -9131,8 +9145,8 @@
       <c r="L206" s="4">
         <v>152</v>
       </c>
-      <c r="M206" s="5">
-        <v>7.8360000000000003</v>
+      <c r="M206" s="6">
+        <v>7836</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -9140,14 +9154,14 @@
       <c r="B207" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C207" s="4">
-        <v>1.8089999999999999</v>
-      </c>
-      <c r="D207" s="4">
-        <v>1.3009999999999999</v>
-      </c>
-      <c r="E207" s="4">
-        <v>3.24</v>
+      <c r="C207" s="5">
+        <v>1809</v>
+      </c>
+      <c r="D207" s="5">
+        <v>1301</v>
+      </c>
+      <c r="E207" s="5">
+        <v>3240</v>
       </c>
       <c r="F207" s="4">
         <v>179</v>
@@ -9170,8 +9184,8 @@
       <c r="L207" s="4">
         <v>167</v>
       </c>
-      <c r="M207" s="5">
-        <v>8.2579999999999991</v>
+      <c r="M207" s="6">
+        <v>8258</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9187,8 +9201,8 @@
       <c r="D208" s="4">
         <v>477</v>
       </c>
-      <c r="E208" s="4">
-        <v>2.827</v>
+      <c r="E208" s="5">
+        <v>2827</v>
       </c>
       <c r="F208" s="4">
         <v>263</v>
@@ -9211,8 +9225,8 @@
       <c r="L208" s="4">
         <v>99</v>
       </c>
-      <c r="M208" s="5">
-        <v>5.532</v>
+      <c r="M208" s="6">
+        <v>5532</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -9220,14 +9234,14 @@
       <c r="B209" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C209" s="4">
-        <v>2.2010000000000001</v>
-      </c>
-      <c r="D209" s="4">
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="E209" s="4">
-        <v>1.9650000000000001</v>
+      <c r="C209" s="5">
+        <v>2201</v>
+      </c>
+      <c r="D209" s="5">
+        <v>1068</v>
+      </c>
+      <c r="E209" s="5">
+        <v>1965</v>
       </c>
       <c r="F209" s="4">
         <v>62</v>
@@ -9250,8 +9264,8 @@
       <c r="L209" s="4">
         <v>136</v>
       </c>
-      <c r="M209" s="5">
-        <v>6.33</v>
+      <c r="M209" s="6">
+        <v>6330</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -9267,8 +9281,8 @@
       <c r="D210" s="4">
         <v>959</v>
       </c>
-      <c r="E210" s="4">
-        <v>2.6949999999999998</v>
+      <c r="E210" s="5">
+        <v>2695</v>
       </c>
       <c r="F210" s="4">
         <v>117</v>
@@ -9291,8 +9305,8 @@
       <c r="L210" s="4">
         <v>123</v>
       </c>
-      <c r="M210" s="5">
-        <v>5.8959999999999999</v>
+      <c r="M210" s="6">
+        <v>5896</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9300,14 +9314,14 @@
       <c r="B211" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="4">
-        <v>4.6929999999999996</v>
-      </c>
-      <c r="D211" s="4">
-        <v>1.3620000000000001</v>
-      </c>
-      <c r="E211" s="4">
-        <v>1.718</v>
+      <c r="C211" s="5">
+        <v>4693</v>
+      </c>
+      <c r="D211" s="5">
+        <v>1362</v>
+      </c>
+      <c r="E211" s="5">
+        <v>1718</v>
       </c>
       <c r="F211" s="4">
         <v>21</v>
@@ -9330,54 +9344,54 @@
       <c r="L211" s="4">
         <v>240</v>
       </c>
-      <c r="M211" s="5">
-        <v>8.7520000000000007</v>
+      <c r="M211" s="6">
+        <v>8752</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
-        <v>15.207000000000001</v>
-      </c>
-      <c r="D212" s="5">
-        <v>19.628</v>
-      </c>
-      <c r="E212" s="5">
-        <v>94.397000000000006</v>
-      </c>
-      <c r="F212" s="5">
-        <v>62.521999999999998</v>
-      </c>
-      <c r="G212" s="5">
-        <v>97.207999999999998</v>
-      </c>
-      <c r="H212" s="5">
-        <v>132.066</v>
-      </c>
-      <c r="I212" s="5">
-        <v>85.334000000000003</v>
-      </c>
-      <c r="J212" s="5">
-        <v>11.247</v>
-      </c>
-      <c r="K212" s="5">
-        <v>1.575</v>
-      </c>
-      <c r="L212" s="5">
-        <v>6.1779999999999999</v>
-      </c>
-      <c r="M212" s="5">
-        <v>525.36199999999997</v>
+      <c r="B212" s="8"/>
+      <c r="C212" s="6">
+        <v>15207</v>
+      </c>
+      <c r="D212" s="6">
+        <v>19628</v>
+      </c>
+      <c r="E212" s="6">
+        <v>94397</v>
+      </c>
+      <c r="F212" s="6">
+        <v>62522</v>
+      </c>
+      <c r="G212" s="6">
+        <v>97208</v>
+      </c>
+      <c r="H212" s="6">
+        <v>132066</v>
+      </c>
+      <c r="I212" s="6">
+        <v>85334</v>
+      </c>
+      <c r="J212" s="6">
+        <v>11247</v>
+      </c>
+      <c r="K212" s="6">
+        <v>1575</v>
+      </c>
+      <c r="L212" s="6">
+        <v>6178</v>
+      </c>
+      <c r="M212" s="6">
+        <v>525362</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9449,8 +9463,8 @@
       <c r="L214" s="4">
         <v>19</v>
       </c>
-      <c r="M214" s="5">
-        <v>1.5820000000000001</v>
+      <c r="M214" s="6">
+        <v>1582</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9488,8 +9502,8 @@
       <c r="L215" s="4">
         <v>3</v>
       </c>
-      <c r="M215" s="5">
-        <v>1.331</v>
+      <c r="M215" s="6">
+        <v>1331</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9529,7 +9543,7 @@
       <c r="L216" s="4">
         <v>5</v>
       </c>
-      <c r="M216" s="5">
+      <c r="M216" s="7">
         <v>840</v>
       </c>
     </row>
@@ -9568,7 +9582,7 @@
       <c r="L217" s="4">
         <v>2</v>
       </c>
-      <c r="M217" s="5">
+      <c r="M217" s="7">
         <v>742</v>
       </c>
     </row>
@@ -9609,7 +9623,7 @@
       <c r="L218" s="4">
         <v>1</v>
       </c>
-      <c r="M218" s="5">
+      <c r="M218" s="7">
         <v>687</v>
       </c>
     </row>
@@ -9648,7 +9662,7 @@
       <c r="L219" s="4">
         <v>1</v>
       </c>
-      <c r="M219" s="5">
+      <c r="M219" s="7">
         <v>623</v>
       </c>
     </row>
@@ -9689,7 +9703,7 @@
       <c r="L220" s="4">
         <v>2</v>
       </c>
-      <c r="M220" s="5">
+      <c r="M220" s="7">
         <v>677</v>
       </c>
     </row>
@@ -9728,7 +9742,7 @@
       <c r="L221" s="4">
         <v>1</v>
       </c>
-      <c r="M221" s="5">
+      <c r="M221" s="7">
         <v>638</v>
       </c>
     </row>
@@ -9769,7 +9783,7 @@
       <c r="L222" s="4">
         <v>8</v>
       </c>
-      <c r="M222" s="5">
+      <c r="M222" s="7">
         <v>659</v>
       </c>
     </row>
@@ -9808,7 +9822,7 @@
       <c r="L223" s="4">
         <v>2</v>
       </c>
-      <c r="M223" s="5">
+      <c r="M223" s="7">
         <v>605</v>
       </c>
     </row>
@@ -9849,7 +9863,7 @@
       <c r="L224" s="4">
         <v>1</v>
       </c>
-      <c r="M224" s="5">
+      <c r="M224" s="7">
         <v>527</v>
       </c>
     </row>
@@ -9888,7 +9902,7 @@
       <c r="L225" s="4">
         <v>4</v>
       </c>
-      <c r="M225" s="5">
+      <c r="M225" s="7">
         <v>480</v>
       </c>
     </row>
@@ -9929,7 +9943,7 @@
       <c r="L226" s="4">
         <v>3</v>
       </c>
-      <c r="M226" s="5">
+      <c r="M226" s="7">
         <v>438</v>
       </c>
     </row>
@@ -9968,7 +9982,7 @@
       <c r="L227" s="4">
         <v>2</v>
       </c>
-      <c r="M227" s="5">
+      <c r="M227" s="7">
         <v>478</v>
       </c>
     </row>
@@ -10009,7 +10023,7 @@
       <c r="L228" s="4">
         <v>14</v>
       </c>
-      <c r="M228" s="5">
+      <c r="M228" s="7">
         <v>477</v>
       </c>
     </row>
@@ -10048,7 +10062,7 @@
       <c r="L229" s="4">
         <v>7</v>
       </c>
-      <c r="M229" s="5">
+      <c r="M229" s="7">
         <v>490</v>
       </c>
     </row>
@@ -10089,7 +10103,7 @@
       <c r="L230" s="4">
         <v>8</v>
       </c>
-      <c r="M230" s="5">
+      <c r="M230" s="7">
         <v>428</v>
       </c>
     </row>
@@ -10128,7 +10142,7 @@
       <c r="L231" s="4">
         <v>2</v>
       </c>
-      <c r="M231" s="5">
+      <c r="M231" s="7">
         <v>390</v>
       </c>
     </row>
@@ -10169,7 +10183,7 @@
       <c r="L232" s="4">
         <v>2</v>
       </c>
-      <c r="M232" s="5">
+      <c r="M232" s="7">
         <v>338</v>
       </c>
     </row>
@@ -10208,7 +10222,7 @@
       <c r="L233" s="4">
         <v>3</v>
       </c>
-      <c r="M233" s="5">
+      <c r="M233" s="7">
         <v>365</v>
       </c>
     </row>
@@ -10249,7 +10263,7 @@
       <c r="L234" s="4">
         <v>3</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="7">
         <v>234</v>
       </c>
     </row>
@@ -10288,7 +10302,7 @@
       <c r="L235" s="4">
         <v>2</v>
       </c>
-      <c r="M235" s="5">
+      <c r="M235" s="7">
         <v>318</v>
       </c>
     </row>
@@ -10329,7 +10343,7 @@
       <c r="L236" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M236" s="5">
+      <c r="M236" s="7">
         <v>330</v>
       </c>
     </row>
@@ -10368,7 +10382,7 @@
       <c r="L237" s="4">
         <v>7</v>
       </c>
-      <c r="M237" s="5">
+      <c r="M237" s="7">
         <v>497</v>
       </c>
     </row>
@@ -10376,39 +10390,49 @@
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
-        <v>1.1140000000000001</v>
-      </c>
-      <c r="D238" s="5">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="E238" s="5">
-        <v>3.702</v>
-      </c>
-      <c r="F238" s="5">
-        <v>1.4630000000000001</v>
-      </c>
-      <c r="G238" s="5">
-        <v>3.2850000000000001</v>
-      </c>
-      <c r="H238" s="5">
-        <v>2.238</v>
-      </c>
-      <c r="I238" s="5">
-        <v>1.0640000000000001</v>
-      </c>
-      <c r="J238" s="5">
+      <c r="B238" s="8"/>
+      <c r="C238" s="6">
+        <v>1114</v>
+      </c>
+      <c r="D238" s="6">
+        <v>1098</v>
+      </c>
+      <c r="E238" s="6">
+        <v>3702</v>
+      </c>
+      <c r="F238" s="6">
+        <v>1463</v>
+      </c>
+      <c r="G238" s="6">
+        <v>3285</v>
+      </c>
+      <c r="H238" s="6">
+        <v>2238</v>
+      </c>
+      <c r="I238" s="6">
+        <v>1064</v>
+      </c>
+      <c r="J238" s="7">
         <v>104</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="7">
         <v>4</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="7">
         <v>102</v>
       </c>
-      <c r="M238" s="5">
-        <v>14.173999999999999</v>
+      <c r="M238" s="6">
+        <v>14174</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A239" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A240" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
